--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_154.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_154.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_154.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_154.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Motel 6 New Orleans Slidell</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Slidell</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>89</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6441</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70458</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70458</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_154.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_154.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1699 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r601385745-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40435</t>
+  </si>
+  <si>
+    <t>242836</t>
+  </si>
+  <si>
+    <t>601385745</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Stayed here a while ago forgot to do my review. Not a bad hotel great for a short stay. Close to the highway. Front desk check in was a breeze. Housekeeping knocks on your door before checkout. Kind of annoying but I wouldn’t complain. Would recommend</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r598609775-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>598609775</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Fine for one night</t>
+  </si>
+  <si>
+    <t>We needed an inexpensive stop for the night on our way to New Orleans. The room was clean, but very basic. The bed had 2 pillows. No bathtub, just a shower. It felt like a dorm room. It doesn't look like much from the outside, but it was perfectly fine inside the room for a one night stay. I would probably not book this hotel for anything longer, but would consider again for a brief rest on a long road trip.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r595200756-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>595200756</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Another safe and affordable Motel 6</t>
+  </si>
+  <si>
+    <t>Clean, modern, safe and friendly staff.  Entire motel has 24 hr surveillance and is fenced in ... good add on since I am moving cross coming country and everything I own is in my Jeep.  Also, had parked cops onsite ... not even for crime, welcomed change.  Lots of plush grass for your pets to do their business on, vending machines in a welcoming lobby.  Even though it is right off the freeway it was really quiet.  New bathrooms, a/c, tv with dish ....GPS gives confusing directions ... just a heads up.Toilet ran and bed wasn’t the worse, but definitely not very comfy either .. maybe an additional pillow would have done the trick.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, modern, safe and friendly staff.  Entire motel has 24 hr surveillance and is fenced in ... good add on since I am moving cross coming country and everything I own is in my Jeep.  Also, had parked cops onsite ... not even for crime, welcomed change.  Lots of plush grass for your pets to do their business on, vending machines in a welcoming lobby.  Even though it is right off the freeway it was really quiet.  New bathrooms, a/c, tv with dish ....GPS gives confusing directions ... just a heads up.Toilet ran and bed wasn’t the worse, but definitely not very comfy either .. maybe an additional pillow would have done the trick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r594124672-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594124672</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs to be updated </t>
+  </si>
+  <si>
+    <t>Me and my wife did an overnight stay for a job the next morning and needless to say the beds were very uncomfortable. There was no refrigerator and microwave in the room. The hotel and the rooms need to be updated and they need new beds and microwaves and refrigerators.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans- Slidell, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Me and my wife did an overnight stay for a job the next morning and needless to say the beds were very uncomfortable. There was no refrigerator and microwave in the room. The hotel and the rooms need to be updated and they need new beds and microwaves and refrigerators.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r579754182-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>579754182</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Nice staff but very dirty</t>
+  </si>
+  <si>
+    <t>I have never complained about a hotel but even my kids didn't want to stay in the first room we were given. Even though the beds had been made it was very clear that the room had not been cleaned. It was a non-smoking room with fresh cig. Burns in the blankets and smoke detector dangling from exposed wires off the wall. Not to mention the earring that was under the blanket on the bed. The hostess was very quick to offer a room change... The 2nd room was better but still not great. The outdoor pool wasn't any better either. We probably wouldn't have stayed but was so tired after a 14 hour drive finding a different room on a busy Friday night seemed impossible. I will say that every staff member I spoke to was very polite and nice.  The A.C. worked amazingly. Water was super hot. So there were perks but the rooms need to be cleaned better and evening hours were definitely NOT kid friendly as several adults were partying just outside our room at the pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 New Orleans- Slidell, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>I have never complained about a hotel but even my kids didn't want to stay in the first room we were given. Even though the beds had been made it was very clear that the room had not been cleaned. It was a non-smoking room with fresh cig. Burns in the blankets and smoke detector dangling from exposed wires off the wall. Not to mention the earring that was under the blanket on the bed. The hostess was very quick to offer a room change... The 2nd room was better but still not great. The outdoor pool wasn't any better either. We probably wouldn't have stayed but was so tired after a 14 hour drive finding a different room on a busy Friday night seemed impossible. I will say that every staff member I spoke to was very polite and nice.  The A.C. worked amazingly. Water was super hot. So there were perks but the rooms need to be cleaned better and evening hours were definitely NOT kid friendly as several adults were partying just outside our room at the pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r565438959-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>565438959</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This was an awesome stay the beds were very comfortable and very nice room and great people pet friendly and I would stay again great rates if your in Slidell definitely stay here and very quite. Love the weather here and great restaurants to eat at.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>This was an awesome stay the beds were very comfortable and very nice room and great people pet friendly and I would stay again great rates if your in Slidell definitely stay here and very quite. Love the weather here and great restaurants to eat at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r534176096-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>534176096</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Quick night stop from TX to AL 9-17</t>
+  </si>
+  <si>
+    <t>Just stopped here to rest for the night. Motel was a little unusual to get to. Is close to interstate exit, but easy to miss the street. Plenty of places around to eat at. Average price, might be higher due to being close to New Orleans? Motel was typical my room was modern enough, bed was comfy, clean room, staff was ok. Not much for breakfast other than coffee, if I remember right?</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r522845547-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>522845547</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Evacuating</t>
+  </si>
+  <si>
+    <t>My husband and I had a mandatory evacuation from Daytona Beach FL. We booked a room then after hours traveling and going through numerous wrecks I called at 330 am to tell them we wouldn't make it there before check out time the next day and they could rent the room to someone else. I was reassured I would get a refund but to call back in the morning which I did at 7 am once again I was told I would receive a refund but to call back at 8 and talk to the manager Paula which I did and was informed by her there was nothing she could do that she was there till 1130 and I didn't call when I tried to explain that I didn't even book the room till later or call back the first time till after 3 am she hung up on me. When I called back and asked her why she hung up on me she said she didn't and then did it again. This is a shame we had to leave our home to save our lives,we have very little money and no idea if we'll have a home when we get back and now a motel I've been doing business with for over 15 years just robbed me of 70$MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I had a mandatory evacuation from Daytona Beach FL. We booked a room then after hours traveling and going through numerous wrecks I called at 330 am to tell them we wouldn't make it there before check out time the next day and they could rent the room to someone else. I was reassured I would get a refund but to call back in the morning which I did at 7 am once again I was told I would receive a refund but to call back at 8 and talk to the manager Paula which I did and was informed by her there was nothing she could do that she was there till 1130 and I didn't call when I tried to explain that I didn't even book the room till later or call back the first time till after 3 am she hung up on me. When I called back and asked her why she hung up on me she said she didn't and then did it again. This is a shame we had to leave our home to save our lives,we have very little money and no idea if we'll have a home when we get back and now a motel I've been doing business with for over 15 years just robbed me of 70$More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r512239383-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>512239383</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very clean and the beds were comfortable.  The air conditioner wasn't near as cold as wanted but wasn't horrible.  There was no amenities i.e. No shampoo, blow dryer, coffee pot, microwave or refrigerator.  You could here outside noise but not so bad you couldn't sleep.  For the price, I'd stay again. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r494589524-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>494589524</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Spartan room</t>
+  </si>
+  <si>
+    <t>No ammenities, no free internet, fuse blew out in the bathroom.  We had to shower in the dark.  The bed for two people was right up next to the wall.  On the plus side clerks were nice, room was clean and rate was adequate.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r481386089-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>481386089</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Spartan but very clean</t>
+  </si>
+  <si>
+    <t>If you want to tour the swamps with Dr. Wagner or Pearl River, this is a great location as you just have to drive down a couple of highways without much complexity and you're at the tour locations. I took both Dr. Wagner and Pear River on different days ( you could do them on the same day), and by being in the motel saved the cost of being driven out from New Orleans. Staff was efficient, friendly; free coffee in the morning. I had an end room, so it wasn't noisy. (I made sure to ask for a quiet location, and arrived early enough that there was some choice.) Only thing I missed was no refrigerator in the room. I guess it's just an amenity that I need to have, because trying to use a styrofoam cooler is impossible in Louisiana's humid climate. Paid internet was also a deficit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>If you want to tour the swamps with Dr. Wagner or Pearl River, this is a great location as you just have to drive down a couple of highways without much complexity and you're at the tour locations. I took both Dr. Wagner and Pear River on different days ( you could do them on the same day), and by being in the motel saved the cost of being driven out from New Orleans. Staff was efficient, friendly; free coffee in the morning. I had an end room, so it wasn't noisy. (I made sure to ask for a quiet location, and arrived early enough that there was some choice.) Only thing I missed was no refrigerator in the room. I guess it's just an amenity that I need to have, because trying to use a styrofoam cooler is impossible in Louisiana's humid climate. Paid internet was also a deficit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r466661123-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466661123</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Simple and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed one night on route cross country. Booked day of arrival without issues. Friendly front desk staff. Coffee available near front desk. Small room with adequate amenities for the price. Very clean and like all Motel 6 motels, it's pet-friendly, which is huge for me. Mattress was a bit soft for my liking and hotel is really close to highway, so you hear cars drive by, if you have a light sleep like I do. Yet, definitely worth it. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r460430465-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>460430465</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not stop!! Loud, Rude, Checked in late in night. Night window ice machine rattling behind me could not hear. Night policeman comes in taking care of complaints. Loud parties rooms clean outside unkempt. Next morning men sitting outside rooms in wife beater shirts. Get the picture?? </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r459415643-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>459415643</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great staff and rooms</t>
+  </si>
+  <si>
+    <t>I and my wife came to Louisiana for work. We had to stay somewhere for the first 4 days upon arrival. The staff here were very helpful and pleasant to be around. If you need a room for a night or longer I would recommend this Motel 6.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r445990652-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>445990652</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Good Room for what you pay</t>
+  </si>
+  <si>
+    <t>This is not a place I would stay for more than one night.
+But first - the good things --- Very clean rooms, including a spotless bathroom. Showers only, but that was fine with me (no tub). The sheets actually had a clean 'clorox' scent - good. Front desk was friendly enough and recommended nearby restaurants (which unfortunately were closed - in fact we checked on 4 seafood restaurants in the area and they ALL closed at 8:00 - it was 8:05...). TV and available stations were all right.
+Now - the negatives - Expect a small room, with no refrigerator or microwave. Sign in office advises additional charge if you want wifi. I questioned the reason for a police car parked near the office and was told it was normally there for security - but there were no problems. And I do appreciate a police presence so that was fine with me. Although the bathroom was spotless - it's rather small with one mirror and an single vanity/sink. For 2 sisters traveling together - One of us tried to 'get ready for the day' at the dresser - and couldn't find a close outlet. Outside of the bathroom, the outlets are by the entrance door and at the head of the bed (did i miss one??).
+One night was fine. checked in, went to dinner, settled into room, up early the next morning - and out. But anymore time...This is not a place I would stay for more than one night.But first - the good things --- Very clean rooms, including a spotless bathroom. Showers only, but that was fine with me (no tub). The sheets actually had a clean 'clorox' scent - good. Front desk was friendly enough and recommended nearby restaurants (which unfortunately were closed - in fact we checked on 4 seafood restaurants in the area and they ALL closed at 8:00 - it was 8:05...). TV and available stations were all right.Now - the negatives - Expect a small room, with no refrigerator or microwave. Sign in office advises additional charge if you want wifi. I questioned the reason for a police car parked near the office and was told it was normally there for security - but there were no problems. And I do appreciate a police presence so that was fine with me. Although the bathroom was spotless - it's rather small with one mirror and an single vanity/sink. For 2 sisters traveling together - One of us tried to 'get ready for the day' at the dresser - and couldn't find a close outlet. Outside of the bathroom, the outlets are by the entrance door and at the head of the bed (did i miss one??).One night was fine. checked in, went to dinner, settled into room, up early the next morning - and out. But anymore time than that - could feel a little crowded.  Is located just off the interstate with restaurants (closing at 8) and fast food facilities in the immediate area.But overall - yes - it's a good place to stay without any frills. If you want more than the basics - stay someplace else and pay for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is not a place I would stay for more than one night.
+But first - the good things --- Very clean rooms, including a spotless bathroom. Showers only, but that was fine with me (no tub). The sheets actually had a clean 'clorox' scent - good. Front desk was friendly enough and recommended nearby restaurants (which unfortunately were closed - in fact we checked on 4 seafood restaurants in the area and they ALL closed at 8:00 - it was 8:05...). TV and available stations were all right.
+Now - the negatives - Expect a small room, with no refrigerator or microwave. Sign in office advises additional charge if you want wifi. I questioned the reason for a police car parked near the office and was told it was normally there for security - but there were no problems. And I do appreciate a police presence so that was fine with me. Although the bathroom was spotless - it's rather small with one mirror and an single vanity/sink. For 2 sisters traveling together - One of us tried to 'get ready for the day' at the dresser - and couldn't find a close outlet. Outside of the bathroom, the outlets are by the entrance door and at the head of the bed (did i miss one??).
+One night was fine. checked in, went to dinner, settled into room, up early the next morning - and out. But anymore time...This is not a place I would stay for more than one night.But first - the good things --- Very clean rooms, including a spotless bathroom. Showers only, but that was fine with me (no tub). The sheets actually had a clean 'clorox' scent - good. Front desk was friendly enough and recommended nearby restaurants (which unfortunately were closed - in fact we checked on 4 seafood restaurants in the area and they ALL closed at 8:00 - it was 8:05...). TV and available stations were all right.Now - the negatives - Expect a small room, with no refrigerator or microwave. Sign in office advises additional charge if you want wifi. I questioned the reason for a police car parked near the office and was told it was normally there for security - but there were no problems. And I do appreciate a police presence so that was fine with me. Although the bathroom was spotless - it's rather small with one mirror and an single vanity/sink. For 2 sisters traveling together - One of us tried to 'get ready for the day' at the dresser - and couldn't find a close outlet. Outside of the bathroom, the outlets are by the entrance door and at the head of the bed (did i miss one??).One night was fine. checked in, went to dinner, settled into room, up early the next morning - and out. But anymore time than that - could feel a little crowded.  Is located just off the interstate with restaurants (closing at 8) and fast food facilities in the immediate area.But overall - yes - it's a good place to stay without any frills. If you want more than the basics - stay someplace else and pay for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r441132500-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>441132500</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Basic Accommodation</t>
+  </si>
+  <si>
+    <t>Who would have thought that in 2016 I would stay in a motel that does not have free Wi-Fi! If it is the Motel 6 company policy to not provide standard amenities then they have outdone themselves. The room had two beds, a bathroom,a TV and even a chair. The bathroom was very dark as the light in the shower did not work. It was unpleasant to a certain degree that the room was smelling moldy and in the mornings our clothes were moist. The motel staff was very friendly. Unfortunately they did not honor the rate of our reservation so we had to pay more than was agreed upon. In exchange for the higher rate, the motel was guarded by a stationary police patrol and a bunch of bounty hunters all night - as they were trying to locate a fugitive supposedly hiding somewhere on the motel grounds. But there were good things too: The parking is free!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 New Orleans- Slidell, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Who would have thought that in 2016 I would stay in a motel that does not have free Wi-Fi! If it is the Motel 6 company policy to not provide standard amenities then they have outdone themselves. The room had two beds, a bathroom,a TV and even a chair. The bathroom was very dark as the light in the shower did not work. It was unpleasant to a certain degree that the room was smelling moldy and in the mornings our clothes were moist. The motel staff was very friendly. Unfortunately they did not honor the rate of our reservation so we had to pay more than was agreed upon. In exchange for the higher rate, the motel was guarded by a stationary police patrol and a bunch of bounty hunters all night - as they were trying to locate a fugitive supposedly hiding somewhere on the motel grounds. But there were good things too: The parking is free!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r439410090-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>439410090</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Quality Service.</t>
+  </si>
+  <si>
+    <t>I have have stayed at this property on multiple occasions and always receive a warm welcome and fast service from the Front Desk attendant. Although there was a small glitch during this check in, we were given a specific time frame as to how long it would take to resolve an internal issue and get us checked as quick as possible after that. We made a quick stop to get a bite to eat and returned about 35 minutes later, true to her word, her issue was resolved and we were checked in in a flash. I'm absolutely thrilled that pets stay free as well. Free, nada, nothing, no hidden pet fees here!! 
+This is a basic room that is very clean, beds are comfortable the bathroom and shower are as clean the rest of the room. This property is located about 45 minutes from NOLA, which for us is perfect, because we also like to spend time near Bay St. Louis as well. I prefer basic amenities for the simple fact that  we don't spend a whole lot of time in the room, there's so much to do when we're down there. 
+We've always stayed here during the week, Monday thru Thursday, and have always had a good experience. I keep coming back for many reasons, these are just a few, and I highly recommend this property. All of the staff we have encountered are very friendly and helpful!...I have have stayed at this property on multiple occasions and always receive a warm welcome and fast service from the Front Desk attendant. Although there was a small glitch during this check in, we were given a specific time frame as to how long it would take to resolve an internal issue and get us checked as quick as possible after that. We made a quick stop to get a bite to eat and returned about 35 minutes later, true to her word, her issue was resolved and we were checked in in a flash. I'm absolutely thrilled that pets stay free as well. Free, nada, nothing, no hidden pet fees here!! This is a basic room that is very clean, beds are comfortable the bathroom and shower are as clean the rest of the room. This property is located about 45 minutes from NOLA, which for us is perfect, because we also like to spend time near Bay St. Louis as well. I prefer basic amenities for the simple fact that  we don't spend a whole lot of time in the room, there's so much to do when we're down there. We've always stayed here during the week, Monday thru Thursday, and have always had a good experience. I keep coming back for many reasons, these are just a few, and I highly recommend this property. All of the staff we have encountered are very friendly and helpful!Safe travels everyone!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have have stayed at this property on multiple occasions and always receive a warm welcome and fast service from the Front Desk attendant. Although there was a small glitch during this check in, we were given a specific time frame as to how long it would take to resolve an internal issue and get us checked as quick as possible after that. We made a quick stop to get a bite to eat and returned about 35 minutes later, true to her word, her issue was resolved and we were checked in in a flash. I'm absolutely thrilled that pets stay free as well. Free, nada, nothing, no hidden pet fees here!! 
+This is a basic room that is very clean, beds are comfortable the bathroom and shower are as clean the rest of the room. This property is located about 45 minutes from NOLA, which for us is perfect, because we also like to spend time near Bay St. Louis as well. I prefer basic amenities for the simple fact that  we don't spend a whole lot of time in the room, there's so much to do when we're down there. 
+We've always stayed here during the week, Monday thru Thursday, and have always had a good experience. I keep coming back for many reasons, these are just a few, and I highly recommend this property. All of the staff we have encountered are very friendly and helpful!...I have have stayed at this property on multiple occasions and always receive a warm welcome and fast service from the Front Desk attendant. Although there was a small glitch during this check in, we were given a specific time frame as to how long it would take to resolve an internal issue and get us checked as quick as possible after that. We made a quick stop to get a bite to eat and returned about 35 minutes later, true to her word, her issue was resolved and we were checked in in a flash. I'm absolutely thrilled that pets stay free as well. Free, nada, nothing, no hidden pet fees here!! This is a basic room that is very clean, beds are comfortable the bathroom and shower are as clean the rest of the room. This property is located about 45 minutes from NOLA, which for us is perfect, because we also like to spend time near Bay St. Louis as well. I prefer basic amenities for the simple fact that  we don't spend a whole lot of time in the room, there's so much to do when we're down there. We've always stayed here during the week, Monday thru Thursday, and have always had a good experience. I keep coming back for many reasons, these are just a few, and I highly recommend this property. All of the staff we have encountered are very friendly and helpful!Safe travels everyone!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r438647003-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>438647003</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>They Tried...Ill give them that</t>
+  </si>
+  <si>
+    <t>First off its a Motel 6 so dont expect much. Wife and I made a stop in for the LSU FL game. The Room was VERY basic, meaning bed," table, tv NO micro/fridge,hair dryer, coffee pot..etc. The room had the typical stale hotel room smell, However the room seemed to be quite clean. The matress was horrible, I expected a spring to shoot out at any moment. They have attempted to renovate and modernize, although i would seek a refund for whoever layed there laminate flooring down cause gaps were all over the place. The bathroom was pretty nice, had a weird corner shower unit. Check in was a little rough, as we arrived late, they check you in through a little security window, which is close to a very loud ice machine which makes it fairly hard to hear the check in process. I also notified the lady at checkout our tv in our room was going out. Also note the front of the hotel faces I10 so there is some traffic noise. Bottom line, if you just need a place to crash for a night...this place is okay, anything longer...id spend a little extra.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off its a Motel 6 so dont expect much. Wife and I made a stop in for the LSU FL game. The Room was VERY basic, meaning bed," table, tv NO micro/fridge,hair dryer, coffee pot..etc. The room had the typical stale hotel room smell, However the room seemed to be quite clean. The matress was horrible, I expected a spring to shoot out at any moment. They have attempted to renovate and modernize, although i would seek a refund for whoever layed there laminate flooring down cause gaps were all over the place. The bathroom was pretty nice, had a weird corner shower unit. Check in was a little rough, as we arrived late, they check you in through a little security window, which is close to a very loud ice machine which makes it fairly hard to hear the check in process. I also notified the lady at checkout our tv in our room was going out. Also note the front of the hotel faces I10 so there is some traffic noise. Bottom line, if you just need a place to crash for a night...this place is okay, anything longer...id spend a little extra.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r437781470-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>437781470</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Room for the Night</t>
+  </si>
+  <si>
+    <t>Stayed here as we were passing through Slidell.  Rooms were clean and reasonably comfortable.  Bed was fine but the pillows were too hard for me.  There was no in room coffee or refrigerator.  Coffee was available after 6 am in the office but I get up earlier than that.  Room price was fair for what you get.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r430414872-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>430414872</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Great service.Nice rooms</t>
+  </si>
+  <si>
+    <t>This is a no frills hotel. It's clean,associates are on point. Price is right. Pet friendly. GM is exceptional.  Highly recommended. You want fancy,go elsewhere. Security is great. Police on property. Rooms are renovated and again,clean.AARP discount,must have valid card upon check in.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r427112811-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>427112811</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Decent Room - Decent Rate</t>
+  </si>
+  <si>
+    <t>I normally only stop at hotels/motels with advertised rates out front. What I saw was a good rate. What helped me more was getting a Sr citizen discount without being a member of AARP. Basic room. Friendly lady at the desk when I checked in. Clean but no thrills. Would have liked to have wifi but it wasn't free. The prices of the machines in the guest laundry were too high for my budget.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r411010874-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>411010874</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Ok..shady characters hanging out</t>
+  </si>
+  <si>
+    <t>Room 102...bed too small for 2 adults. .ventilation screen is nothing more than a decoration...no fan in bathroom..no microwave no fridge they charge for wifi standup shower..no tub..cop in parking lit at night..got to lusten to boom boom music which was parked in my spot..glad it was one night stay..never again...check out time 12 pm</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r371811678-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>371811678</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>A 6 is a 6 is a 6...</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 for one night while attending a Cinco de Mayo party across the street at Caretta's Mexican Restaurant. It beat driving home full of Margaritas. Tell you the truth, this Motel 6 was clean, seemed to have been recently "renovated" and, as usual, had not many perks. Wi-Fi can be had for $2.99 basic or $4.99 with all the bells &amp; whistles, but the log-on protocol is kinda weird &amp; you'll probably need help from the front desk. Bed was adequate, a little mushy, as were the pillows. No shampoo, but one new soap. AC good. The pool was out of service, due to "repairs".  As I said, no big deal, but the motel was OK...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 for one night while attending a Cinco de Mayo party across the street at Caretta's Mexican Restaurant. It beat driving home full of Margaritas. Tell you the truth, this Motel 6 was clean, seemed to have been recently "renovated" and, as usual, had not many perks. Wi-Fi can be had for $2.99 basic or $4.99 with all the bells &amp; whistles, but the log-on protocol is kinda weird &amp; you'll probably need help from the front desk. Bed was adequate, a little mushy, as were the pillows. No shampoo, but one new soap. AC good. The pool was out of service, due to "repairs".  As I said, no big deal, but the motel was OK...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r362923599-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>362923599</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Where to begin...first...the price I was charged was over the price I was told online then we checked in and were given a room key..  Return to our room to find it latched and someone in the bed. Then we are given a new room...not what we asked for.. Told we HAD the key. go to the room...DONT have the key. Return to the front desk and get the key.  Not happy with this stay. Will NEVER stay here again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r340542911-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>340542911</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Had a great experience. Room was not what I was expecting for a Motel 6. Hardwood floors, really comfy beds and a great atmosphere. The front desk clerk was so helpful when we had an issue. The only complaint would be the lack of hot water in the bathroom.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r337616712-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>337616712</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Stopped overnight, Not bad.</t>
+  </si>
+  <si>
+    <t>We stopped for the night before our cruise out of New Orleans, coming from Knoxville. Easy to find, clean, good location. Good restaurants near by. Floors were wood laminate, very nice and much cleaner feeling than carpet!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r333109088-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>333109088</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Good place for a night's rest</t>
+  </si>
+  <si>
+    <t>On the road home from Wichita Falls, TX, we needed an easy place to stop late for the night.  My husband likes to park right outside of the door when our vehicle is loaded, so we were happy this motel 6 had been remodeled.  All was fine for the price, except the shower stall was not comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r312666338-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>312666338</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel 6 upgraded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the rooms are modern with wood panel floors, redesigned bathroom, flat screen TV and quiet A/C. Walking distance to variety of restaurants, T/A truck stop across the street. Local police patrols the parking lot. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r295398121-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>295398121</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Everything was much better than expected</t>
+  </si>
+  <si>
+    <t>This is a remodeled site.  The first impression was great with a super friendly staff.  The wifi was out for the weekend, but I looked over this as it was a minor inconvenience compared to the positive experience.  This site could serve as a training example for most Mote 6 management staff.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r287754567-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>287754567</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Great value.</t>
+  </si>
+  <si>
+    <t>Driving FL to AZ, all I needed was a clean, safe, good value place to sleep. I got that here and the staff was very helpful &amp; friendly. Location was perfect, right off I10. No frills, but worth what I paid. Bonus: just 30 minutes from Cafe du Monde for beignets &amp; cafe au lait!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r285750498-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285750498</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>***Ok*****</t>
+  </si>
+  <si>
+    <t>We stayed from 07-03-07-05 the staff is AMAZING!!!The first room we were checked into had some brown stuff on the shower wasn't appealing to the eye. We checked into a smaller room that room was ok. If you want to share a room with crickets then u will have fun. I woke up to crickets on my bed on the floor etc yuck! I won't return to this one. The floors are nice could be cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans- Slidell, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We stayed from 07-03-07-05 the staff is AMAZING!!!The first room we were checked into had some brown stuff on the shower wasn't appealing to the eye. We checked into a smaller room that room was ok. If you want to share a room with crickets then u will have fun. I woke up to crickets on my bed on the floor etc yuck! I won't return to this one. The floors are nice could be cleaner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r285082802-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285082802</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>One night stop is more than enough!</t>
+  </si>
+  <si>
+    <t>I chose this property because of the new renovations that have been happening with Motel 6. I was disappointed in the upkeep of the renovations but the staff was outstanding. The room was clean and air was cold but the furniture was really worn and chipped with the formica peeling away from the wood in some places. Seemed to be some holes in the shower that were poorly patched up as well.Charlene (?) in the front office was wonderful. Very sweet and great hospitality skills.Pool needed to be cleaned of dead bugs and leaves but was clear and nice otherwise. It rained pretty hard for about an hour and it knocked the cable out for a couple hours.Also, had to pay for internet which was slow and hardly worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I chose this property because of the new renovations that have been happening with Motel 6. I was disappointed in the upkeep of the renovations but the staff was outstanding. The room was clean and air was cold but the furniture was really worn and chipped with the formica peeling away from the wood in some places. Seemed to be some holes in the shower that were poorly patched up as well.Charlene (?) in the front office was wonderful. Very sweet and great hospitality skills.Pool needed to be cleaned of dead bugs and leaves but was clear and nice otherwise. It rained pretty hard for about an hour and it knocked the cable out for a couple hours.Also, had to pay for internet which was slow and hardly worth the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r281670467-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>281670467</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>better off sleeping in your car</t>
+  </si>
+  <si>
+    <t>We stopped here when we realized we wouldn't be able to make the next leg of our road trip. We were looking for a cheap no frills hotel, and figured a chain can't be too bad. When we checked in we saw 1. An obvious "working girl" and 2. A police officer leaving a room with gloves on. We were a little afraid but kept going. Our room seemed clean at first, but reeked of smoke, even though we booked non smoking. We busted out the Febreeze and didn't think too much of it, we were so tired. I noticed a long black hair in the shower and then on the towels. More long black hairs on the sheet. Despite all that, the room still seemed "clean." No visible dirt or dust, I figured maybe the housekeeper just had a shedding problem. We went to eat down the street and came back over to go to bed. TV worked well, but the ac did not. There were 2 settings: off, and bone chilling cold. We alternated between the two all night. The water pressure was very low, so we gave up on showering. We had to "rinse" with wet wipes because the soap would not rinse off in the low flow shower.The worst of it came in the morning. Around 5:30 am I was awakened with a tickling on my face. It was a giant roach CRAWLING ON MY FACE....We stopped here when we realized we wouldn't be able to make the next leg of our road trip. We were looking for a cheap no frills hotel, and figured a chain can't be too bad. When we checked in we saw 1. An obvious "working girl" and 2. A police officer leaving a room with gloves on. We were a little afraid but kept going. Our room seemed clean at first, but reeked of smoke, even though we booked non smoking. We busted out the Febreeze and didn't think too much of it, we were so tired. I noticed a long black hair in the shower and then on the towels. More long black hairs on the sheet. Despite all that, the room still seemed "clean." No visible dirt or dust, I figured maybe the housekeeper just had a shedding problem. We went to eat down the street and came back over to go to bed. TV worked well, but the ac did not. There were 2 settings: off, and bone chilling cold. We alternated between the two all night. The water pressure was very low, so we gave up on showering. We had to "rinse" with wet wipes because the soap would not rinse off in the low flow shower.The worst of it came in the morning. Around 5:30 am I was awakened with a tickling on my face. It was a giant roach CRAWLING ON MY FACE. I freaked out, the roach FLEW and it was just an ordeal of panicking. After we killed the roach, I pulled back the covers to look for more roaches and found 4 dead tiny roaches. (baby roaches?) So basically I slept on a bed of roaches. We high tailed it out of there and will never return.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans- Slidell, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>We stopped here when we realized we wouldn't be able to make the next leg of our road trip. We were looking for a cheap no frills hotel, and figured a chain can't be too bad. When we checked in we saw 1. An obvious "working girl" and 2. A police officer leaving a room with gloves on. We were a little afraid but kept going. Our room seemed clean at first, but reeked of smoke, even though we booked non smoking. We busted out the Febreeze and didn't think too much of it, we were so tired. I noticed a long black hair in the shower and then on the towels. More long black hairs on the sheet. Despite all that, the room still seemed "clean." No visible dirt or dust, I figured maybe the housekeeper just had a shedding problem. We went to eat down the street and came back over to go to bed. TV worked well, but the ac did not. There were 2 settings: off, and bone chilling cold. We alternated between the two all night. The water pressure was very low, so we gave up on showering. We had to "rinse" with wet wipes because the soap would not rinse off in the low flow shower.The worst of it came in the morning. Around 5:30 am I was awakened with a tickling on my face. It was a giant roach CRAWLING ON MY FACE....We stopped here when we realized we wouldn't be able to make the next leg of our road trip. We were looking for a cheap no frills hotel, and figured a chain can't be too bad. When we checked in we saw 1. An obvious "working girl" and 2. A police officer leaving a room with gloves on. We were a little afraid but kept going. Our room seemed clean at first, but reeked of smoke, even though we booked non smoking. We busted out the Febreeze and didn't think too much of it, we were so tired. I noticed a long black hair in the shower and then on the towels. More long black hairs on the sheet. Despite all that, the room still seemed "clean." No visible dirt or dust, I figured maybe the housekeeper just had a shedding problem. We went to eat down the street and came back over to go to bed. TV worked well, but the ac did not. There were 2 settings: off, and bone chilling cold. We alternated between the two all night. The water pressure was very low, so we gave up on showering. We had to "rinse" with wet wipes because the soap would not rinse off in the low flow shower.The worst of it came in the morning. Around 5:30 am I was awakened with a tickling on my face. It was a giant roach CRAWLING ON MY FACE. I freaked out, the roach FLEW and it was just an ordeal of panicking. After we killed the roach, I pulled back the covers to look for more roaches and found 4 dead tiny roaches. (baby roaches?) So basically I slept on a bed of roaches. We high tailed it out of there and will never return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r278393978-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278393978</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Good and safe hotel</t>
+  </si>
+  <si>
+    <t>I have read all the review's before making a reservation. It is right next to I 10. I always travel with my dog and they are pet friendly.Both nights I was here they had a security officer and made me feel very safe.The staff is very friendly and the room is nice for the price. There is a cracker barrel and Wal-Mart within 0.2 miles. You can walk to McDonald's and other restraunts.I will stay here again when in Slidell.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r269570425-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>269570425</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Price too high for cleanliness offered</t>
+  </si>
+  <si>
+    <t>Our stay was unexpected and this was the only one we had the money for on short notice. For the price we were really only expecting a clean room with a/c for the night. When we got into the room for the night there was a bug in the shower and pubic hair all over the sheets and at least one of the towels. The staff wanted us to to come to the office to get new liens, not professional but we started to strip the bed to  get ready for new liens and found more pubic hair all over the mattress cover and even the mattress itself. It was dirty beneath the bed (which was extremely easy to move over for cleaning). The man who helped us was polite and easy to deal with, he provided us a refund because we did not want another room. We drove home that night. When we called the manager so she could address the issue she did not seem bothered, she only wanted to know why we were calling her if a refund had been issued when we simply wanted to inform her of what was going on in her facility. She did not seem overly concerned. I do not believe we will be staying in any more Motel 6 rooms, what we paid should have at least provided for cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans- Slidell, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Our stay was unexpected and this was the only one we had the money for on short notice. For the price we were really only expecting a clean room with a/c for the night. When we got into the room for the night there was a bug in the shower and pubic hair all over the sheets and at least one of the towels. The staff wanted us to to come to the office to get new liens, not professional but we started to strip the bed to  get ready for new liens and found more pubic hair all over the mattress cover and even the mattress itself. It was dirty beneath the bed (which was extremely easy to move over for cleaning). The man who helped us was polite and easy to deal with, he provided us a refund because we did not want another room. We drove home that night. When we called the manager so she could address the issue she did not seem bothered, she only wanted to know why we were calling her if a refund had been issued when we simply wanted to inform her of what was going on in her facility. She did not seem overly concerned. I do not believe we will be staying in any more Motel 6 rooms, what we paid should have at least provided for cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r267969421-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>267969421</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Remodeled but not clean</t>
+  </si>
+  <si>
+    <t>The room was remodeled and attractive enough, but very basic.  The issue I had was that the toilet seat was wet when I checked in and the there appeared to be a wrapper from the soap still stuck in the drain.  Not thoroughly cleaned.  They moved me to a new room, but I am done with this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans- Slidell, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>The room was remodeled and attractive enough, but very basic.  The issue I had was that the toilet seat was wet when I checked in and the there appeared to be a wrapper from the soap still stuck in the drain.  Not thoroughly cleaned.  They moved me to a new room, but I am done with this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r262682465-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>262682465</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>Motel 6 or Holiday Inn under disguise?</t>
+  </si>
+  <si>
+    <t>A very pleasant stay.  Then font desk was friendly.  She even called the room to confirm that everything was in order.  Everything was clean and in order.  I especially appreciated the excellent lighting in the room and in the parking lot.  Secure, no noises, no odd people about.  What's not to like considering it's a budget motel.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r260630564-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>260630564</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Although problematic stay, staff was good and management responsive.</t>
+  </si>
+  <si>
+    <t>I took a road trip through the south, staying at several budget and 2 star hotels/motels.   2 out of 8 had issues.  This was one of them.  
+I booked a room here online at Expedia, and got a confirmation through HotelsOne, which is evidently a foreign company under the Expedia umbrella.   It was late at night and I had my receipt.  The room was not acceptable; bed had been remade with dirty sheets.  I was told that I could have another room, but would have to pay for it, as they had not received payment for the one booked on the internet.  I should call HotelsOne.
+This was after midnight.  I felt I was over a barrel.  The only phone number on my receipt was one in Europe, and I was not about to call them.  So I paid for the second room, but was more than mildly upset.  The woman at the desk was very nice, polite, but had to go by management's direction.
+The next morning I spoke with another individual at the desk.  Also pleasant, acknowledged the problem, and advised they knew how it happened (a new housekeeper) and would make sure it didn't happen again.   I was still out for two rooms lodging, but the second room had been fine, and they at least acknowledged my predicament.  
+Tried to get redress through my credit card.  That did not help -- just wasted a month.  So I...I took a road trip through the south, staying at several budget and 2 star hotels/motels.   2 out of 8 had issues.  This was one of them.  I booked a room here online at Expedia, and got a confirmation through HotelsOne, which is evidently a foreign company under the Expedia umbrella.   It was late at night and I had my receipt.  The room was not acceptable; bed had been remade with dirty sheets.  I was told that I could have another room, but would have to pay for it, as they had not received payment for the one booked on the internet.  I should call HotelsOne.This was after midnight.  I felt I was over a barrel.  The only phone number on my receipt was one in Europe, and I was not about to call them.  So I paid for the second room, but was more than mildly upset.  The woman at the desk was very nice, polite, but had to go by management's direction.The next morning I spoke with another individual at the desk.  Also pleasant, acknowledged the problem, and advised they knew how it happened (a new housekeeper) and would make sure it didn't happen again.   I was still out for two rooms lodging, but the second room had been fine, and they at least acknowledged my predicament.  Tried to get redress through my credit card.  That did not help -- just wasted a month.  So I called the manager, Paula, at this motel.  She understood the problem and promised to resolve it.  I have a feeling of confidence in her, and have gotten a verbal response from Expedia.I felt I was listened to and treated respectfully.  I would rather not have had the problems.  But stuff happens.  The way they went about to make it right also matters.So, I would recommend this as a budget motel.  If I had that night to do over, I would not have booked online.  I would have gone straight to the motel.  And maybe checked the room out before getting ready for bed.  A room change would have solved the problem, and I would have given this a 4 rating, as being a good value with a responsive staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I took a road trip through the south, staying at several budget and 2 star hotels/motels.   2 out of 8 had issues.  This was one of them.  
+I booked a room here online at Expedia, and got a confirmation through HotelsOne, which is evidently a foreign company under the Expedia umbrella.   It was late at night and I had my receipt.  The room was not acceptable; bed had been remade with dirty sheets.  I was told that I could have another room, but would have to pay for it, as they had not received payment for the one booked on the internet.  I should call HotelsOne.
+This was after midnight.  I felt I was over a barrel.  The only phone number on my receipt was one in Europe, and I was not about to call them.  So I paid for the second room, but was more than mildly upset.  The woman at the desk was very nice, polite, but had to go by management's direction.
+The next morning I spoke with another individual at the desk.  Also pleasant, acknowledged the problem, and advised they knew how it happened (a new housekeeper) and would make sure it didn't happen again.   I was still out for two rooms lodging, but the second room had been fine, and they at least acknowledged my predicament.  
+Tried to get redress through my credit card.  That did not help -- just wasted a month.  So I...I took a road trip through the south, staying at several budget and 2 star hotels/motels.   2 out of 8 had issues.  This was one of them.  I booked a room here online at Expedia, and got a confirmation through HotelsOne, which is evidently a foreign company under the Expedia umbrella.   It was late at night and I had my receipt.  The room was not acceptable; bed had been remade with dirty sheets.  I was told that I could have another room, but would have to pay for it, as they had not received payment for the one booked on the internet.  I should call HotelsOne.This was after midnight.  I felt I was over a barrel.  The only phone number on my receipt was one in Europe, and I was not about to call them.  So I paid for the second room, but was more than mildly upset.  The woman at the desk was very nice, polite, but had to go by management's direction.The next morning I spoke with another individual at the desk.  Also pleasant, acknowledged the problem, and advised they knew how it happened (a new housekeeper) and would make sure it didn't happen again.   I was still out for two rooms lodging, but the second room had been fine, and they at least acknowledged my predicament.  Tried to get redress through my credit card.  That did not help -- just wasted a month.  So I called the manager, Paula, at this motel.  She understood the problem and promised to resolve it.  I have a feeling of confidence in her, and have gotten a verbal response from Expedia.I felt I was listened to and treated respectfully.  I would rather not have had the problems.  But stuff happens.  The way they went about to make it right also matters.So, I would recommend this as a budget motel.  If I had that night to do over, I would not have booked online.  I would have gone straight to the motel.  And maybe checked the room out before getting ready for bed.  A room change would have solved the problem, and I would have given this a 4 rating, as being a good value with a responsive staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r260553524-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>260553524</t>
+  </si>
+  <si>
+    <t>Great place, great location, clean and bright</t>
+  </si>
+  <si>
+    <t>We stayed there 2 nights with our dog.  Had wonderful friendly service.  Room was better than I expected and was quiet and close to many eating establishments.   Maid service was prompt and did a wonderful job.   Would highly recommend this Motel 6 - I know that we will be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r259866555-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>259866555</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>We were attending an international basketball tournament in Slidell. We rented 6 rooms for two nights for our team and a few parents. The entire night we were stalked by a local policeman that was hired by the motel. At 10:00 pm we were outside the room discussing our next day's plan. The policeman got out of his unit and told us we had to get In our rooms and said "Now we will have to treat yall like children". At that point we didn't know if we checked into a hotel or a prison.       The next morning I explained to a office staff member what happened and told them that we were not staying a second night and wanted my card credited.  They gave me a 1-800 number.  After calling the number I returned to the front desk.  The manager was now there. She insisted that I paid for one night. However I found my receipt. This lady manager was a very rude person.        Myself, the team, and the other team parents were very angry with the way we were treated. Do yourself a favor and stay for away from this place.        Even if you have a small budget PLEASE LISTEN!!!!!!&lt;&lt;&lt;&lt;&lt;DO NOT STAY HERE&gt;&gt;&gt;&gt;&gt;          &lt;&lt;&lt;&lt;DO NOT STAY HERE&gt;&gt;&gt;&gt;&gt;                   &lt;&lt;&lt;&lt;DO NOT STAY HERE&gt;&gt;&gt;&gt;&gt;MoreShow less</t>
+  </si>
+  <si>
+    <t>We were attending an international basketball tournament in Slidell. We rented 6 rooms for two nights for our team and a few parents. The entire night we were stalked by a local policeman that was hired by the motel. At 10:00 pm we were outside the room discussing our next day's plan. The policeman got out of his unit and told us we had to get In our rooms and said "Now we will have to treat yall like children". At that point we didn't know if we checked into a hotel or a prison.       The next morning I explained to a office staff member what happened and told them that we were not staying a second night and wanted my card credited.  They gave me a 1-800 number.  After calling the number I returned to the front desk.  The manager was now there. She insisted that I paid for one night. However I found my receipt. This lady manager was a very rude person.        Myself, the team, and the other team parents were very angry with the way we were treated. Do yourself a favor and stay for away from this place.        Even if you have a small budget PLEASE LISTEN!!!!!!&lt;&lt;&lt;&lt;&lt;DO NOT STAY HERE&gt;&gt;&gt;&gt;&gt;          &lt;&lt;&lt;&lt;DO NOT STAY HERE&gt;&gt;&gt;&gt;&gt;                   &lt;&lt;&lt;&lt;DO NOT STAY HERE&gt;&gt;&gt;&gt;&gt;More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r258949007-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>258949007</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Depressing Accomodation</t>
+  </si>
+  <si>
+    <t>Small rooms, poorly furnished, but the beds were great.  No breakfast is offered and internet access is $5 per day extra.  What initially seemed like a good deal, turned out to be not so great after all.There are lots of malls and restaurants in the area, but what most people come for is its proximity to New Orleans.  It's 30 miles from the French Quarter by highway, which I found a bit too far for convenient commuting.I wouldn't stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r253810833-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>253810833</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>The manager is very disrespectful</t>
+  </si>
+  <si>
+    <t>When we stayed there  at the end of janurary the manager followed us to our room where me and my husband paid for two people to stay and she kept harrassing us saying to come down to the office so she can check i tried telling her the price we paid for two people and she insisted that we come down are the cops will be called.We went down and she checked our names and i was right of course because i know we paid for two.she then stated if she sees us hanging outside she has the right to call the cops to have me and my husband arrested.im a 59 year old women and all i wanted to do was sleep so we can get on the road to travel home.shes a very nasty person in general mean and very disrespectful.the front desk staff however were very nice if motel 6 copperate dosent take care of this manager no one will continue to stay there due to this women.very naty attitude.i feel for who ever stays there to be honest because she harasses paying costumers and i wasnt the only one she was running behind.She like a chicken running in a feild of confusion and should be FIRED.I WILL NEVER STAY AT MOTEL 6 IN SLIDELL LA AGAIN FIX THIS PROBLEM PLEASE...MoreShow less</t>
+  </si>
+  <si>
+    <t>When we stayed there  at the end of janurary the manager followed us to our room where me and my husband paid for two people to stay and she kept harrassing us saying to come down to the office so she can check i tried telling her the price we paid for two people and she insisted that we come down are the cops will be called.We went down and she checked our names and i was right of course because i know we paid for two.she then stated if she sees us hanging outside she has the right to call the cops to have me and my husband arrested.im a 59 year old women and all i wanted to do was sleep so we can get on the road to travel home.shes a very nasty person in general mean and very disrespectful.the front desk staff however were very nice if motel 6 copperate dosent take care of this manager no one will continue to stay there due to this women.very naty attitude.i feel for who ever stays there to be honest because she harasses paying costumers and i wasnt the only one she was running behind.She like a chicken running in a feild of confusion and should be FIRED.I WILL NEVER STAY AT MOTEL 6 IN SLIDELL LA AGAIN FIX THIS PROBLEM PLEASE...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r251985618-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>251985618</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Good motel</t>
+  </si>
+  <si>
+    <t>It is nice to see a room all remodeled and clean, but unfortunately they forgot to update the old noisy a/c.During the stay they didn't do the housekeeping.In my opinion for the price charged they could include the Internet and a breakfast..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r248650353-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>248650353</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip to New Orleans for the Sugar Bowl.  Needless to say rooms in New Orleans were difficult to obtain and quite costly.  We chose to stay here for 2 nights and then went on to New Orleans when rooms became available.  I was pleasantly surprised at the cleanliness of the room.  I did notice some sort of wrapper underneath the bed on our first night but it was gone the second night.  The room was bright had lots of lighting.  Be aware that it is very sparse.  Think dorm room.  Really, it looks like a dorm room.  The floors are laminate rather than carpeted, which I think is better because who knows what is lurking in hotel carpeting anyway.  The bathroom is very small and shower even smaller, it reminds me of what you might have in a RV. There isn't a tub.  I didn't see a hair dryer.  There wasn't a coffee maker or any toiletries.  It is really a no frills hotel.  Our room didn't have a fridge or microwave.  Also no in room safe.  We did have a flat screen TV.  Plenty of hot water and good water pressure.  Heating kept us toasty.  It is near the interstate but we didn't have any problems sleeping.  For the price, it is a good deal.  Just be sure to take any "extras" you might want. This is for someone who just needs a place...We stayed here on a trip to New Orleans for the Sugar Bowl.  Needless to say rooms in New Orleans were difficult to obtain and quite costly.  We chose to stay here for 2 nights and then went on to New Orleans when rooms became available.  I was pleasantly surprised at the cleanliness of the room.  I did notice some sort of wrapper underneath the bed on our first night but it was gone the second night.  The room was bright had lots of lighting.  Be aware that it is very sparse.  Think dorm room.  Really, it looks like a dorm room.  The floors are laminate rather than carpeted, which I think is better because who knows what is lurking in hotel carpeting anyway.  The bathroom is very small and shower even smaller, it reminds me of what you might have in a RV. There isn't a tub.  I didn't see a hair dryer.  There wasn't a coffee maker or any toiletries.  It is really a no frills hotel.  Our room didn't have a fridge or microwave.  Also no in room safe.  We did have a flat screen TV.  Plenty of hot water and good water pressure.  Heating kept us toasty.  It is near the interstate but we didn't have any problems sleeping.  For the price, it is a good deal.  Just be sure to take any "extras" you might want. This is for someone who just needs a place to sleep and shower, not for anyone looking to be pampered.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip to New Orleans for the Sugar Bowl.  Needless to say rooms in New Orleans were difficult to obtain and quite costly.  We chose to stay here for 2 nights and then went on to New Orleans when rooms became available.  I was pleasantly surprised at the cleanliness of the room.  I did notice some sort of wrapper underneath the bed on our first night but it was gone the second night.  The room was bright had lots of lighting.  Be aware that it is very sparse.  Think dorm room.  Really, it looks like a dorm room.  The floors are laminate rather than carpeted, which I think is better because who knows what is lurking in hotel carpeting anyway.  The bathroom is very small and shower even smaller, it reminds me of what you might have in a RV. There isn't a tub.  I didn't see a hair dryer.  There wasn't a coffee maker or any toiletries.  It is really a no frills hotel.  Our room didn't have a fridge or microwave.  Also no in room safe.  We did have a flat screen TV.  Plenty of hot water and good water pressure.  Heating kept us toasty.  It is near the interstate but we didn't have any problems sleeping.  For the price, it is a good deal.  Just be sure to take any "extras" you might want. This is for someone who just needs a place...We stayed here on a trip to New Orleans for the Sugar Bowl.  Needless to say rooms in New Orleans were difficult to obtain and quite costly.  We chose to stay here for 2 nights and then went on to New Orleans when rooms became available.  I was pleasantly surprised at the cleanliness of the room.  I did notice some sort of wrapper underneath the bed on our first night but it was gone the second night.  The room was bright had lots of lighting.  Be aware that it is very sparse.  Think dorm room.  Really, it looks like a dorm room.  The floors are laminate rather than carpeted, which I think is better because who knows what is lurking in hotel carpeting anyway.  The bathroom is very small and shower even smaller, it reminds me of what you might have in a RV. There isn't a tub.  I didn't see a hair dryer.  There wasn't a coffee maker or any toiletries.  It is really a no frills hotel.  Our room didn't have a fridge or microwave.  Also no in room safe.  We did have a flat screen TV.  Plenty of hot water and good water pressure.  Heating kept us toasty.  It is near the interstate but we didn't have any problems sleeping.  For the price, it is a good deal.  Just be sure to take any "extras" you might want. This is for someone who just needs a place to sleep and shower, not for anyone looking to be pampered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r247585784-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247585784</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Nice and Reasonable</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights on a recent trip to New Orleans because of the price and location. It's a half hour from NOLA, and it's located right off I-10. The staff was very friendly, and the hotel is very decent due to recent upgrades. The bed was comfortable, and the bathroom was nice and clean. Overall, I'd stay here again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r246619155-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246619155</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>BEDBUGS!!!!</t>
+  </si>
+  <si>
+    <t>I arrived at the motel with my mother and fiancé. At first glance it looked fine. When I woke up at six in the morning to use the bathroom, my arms, neck and lower back were itching I looked in the mirror and noticed bites all over those locations. I never had an encounter with bed bugs before so I assumed a mosquito was in the room. I turned on the light and notice a red bug on the white sheet I thought it was a beetle until I saw another, then another at this point I was getting worried. I woke up my fiancé and told him what was going on. He put all the bugs we acquired (total of seven!) In a container and my mom went to the front desk. The manager lives on site and was walking her dog outside. She could of cared less about the incident and told my mom she was "walking her dog and not on duty so she couldn't refund our fee." Horrified, we immediately left. If you value your skin and cleanliness please avoid this motel six. Absolutely disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at the motel with my mother and fiancé. At first glance it looked fine. When I woke up at six in the morning to use the bathroom, my arms, neck and lower back were itching I looked in the mirror and noticed bites all over those locations. I never had an encounter with bed bugs before so I assumed a mosquito was in the room. I turned on the light and notice a red bug on the white sheet I thought it was a beetle until I saw another, then another at this point I was getting worried. I woke up my fiancé and told him what was going on. He put all the bugs we acquired (total of seven!) In a container and my mom went to the front desk. The manager lives on site and was walking her dog outside. She could of cared less about the incident and told my mom she was "walking her dog and not on duty so she couldn't refund our fee." Horrified, we immediately left. If you value your skin and cleanliness please avoid this motel six. Absolutely disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r246155758-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246155758</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Price versus amenities</t>
+  </si>
+  <si>
+    <t>Our room was clean &amp; it would have been great for a quick overnight stop, but for the paper thin walls. I hardly got any sleep. Could hear just about everything from the room next door. The shower was a little strange &amp; the toilet was not anchored correctly so it would hit the back of the wall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r238992883-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>238992883</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Great place for little money!</t>
+  </si>
+  <si>
+    <t>I was very surprised and happy with my stay here. It has been updated and looks better in the rooms. Security walked around the parking lot which I loved. I would definitely recommend and stay at this motel again!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r228502457-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>228502457</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Cheap place that surprised us!</t>
+  </si>
+  <si>
+    <t>Stayed with three friends here a few days for a trip to NOLA. It was a great place to store our things, sleep, and shower. Clean rooms. Definitely small. The two big downsides were that we had to pay for wifi, and that we did not get clean towels after our first day, which between four people was a problem. Considering the price, it was definitely a good stay!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r228202566-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>228202566</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Worst Motel I've Ever Stayed At</t>
+  </si>
+  <si>
+    <t>This was our second choice motel when my husband and I stayed here. Because of no vacancy at the first one, we came here since it was around the same price and nearby. We had stayed here before, before it was remodeled. 
+The woman working the front desk was very friendly. We got a queen single bed on the second floor. As soon as we walked it, it looked great. We weren't even in the room for 5 minutes when my husband walked into the bathroom and saw a razor blade in the bottom of the toilet. Not only was that disgusting, that also tells me the toilet had not been cleaned. We called the front desk, and she gladly let us switch to a different room. 
+After putting all of our stuff in the new room, I checked the bathroom. No razor this time, but you could easily tell that it had not been cleaned. I am in housekeeping, so I understand that things get missed sometimes. But there is no reason why two "clean" rooms should have dirty toilets.  After I cleaned the toilet, my husband went in to take a shower.  There was only hot water, which wouldn't have been bad if it didn't feel like it was 100 degrees outside. 
+Now slightly aggravated, we go downstairs to get ice so we can fix a cup of water and go to bed. The ice machine is broken....This was our second choice motel when my husband and I stayed here. Because of no vacancy at the first one, we came here since it was around the same price and nearby. We had stayed here before, before it was remodeled. The woman working the front desk was very friendly. We got a queen single bed on the second floor. As soon as we walked it, it looked great. We weren't even in the room for 5 minutes when my husband walked into the bathroom and saw a razor blade in the bottom of the toilet. Not only was that disgusting, that also tells me the toilet had not been cleaned. We called the front desk, and she gladly let us switch to a different room. After putting all of our stuff in the new room, I checked the bathroom. No razor this time, but you could easily tell that it had not been cleaned. I am in housekeeping, so I understand that things get missed sometimes. But there is no reason why two "clean" rooms should have dirty toilets.  After I cleaned the toilet, my husband went in to take a shower.  There was only hot water, which wouldn't have been bad if it didn't feel like it was 100 degrees outside. Now slightly aggravated, we go downstairs to get ice so we can fix a cup of water and go to bed. The ice machine is broken. Dirty toilet, no cold water, and no ice. We definitely were not happy. I go back to the front desk to pay the $3.00 for a wifi code. Instead of telling us before we checked in, we find out an hour afterwards that the Wifi has been down. This is when we requested our money back and went to the old hotel across the street. It might not have been as updated, but I would much rather stay in an older hotel that actually has functioning amenities.  I will NEVER stay at another Motel 6. This motel deserves ZERO stars. Absolutely disgusting. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This was our second choice motel when my husband and I stayed here. Because of no vacancy at the first one, we came here since it was around the same price and nearby. We had stayed here before, before it was remodeled. 
+The woman working the front desk was very friendly. We got a queen single bed on the second floor. As soon as we walked it, it looked great. We weren't even in the room for 5 minutes when my husband walked into the bathroom and saw a razor blade in the bottom of the toilet. Not only was that disgusting, that also tells me the toilet had not been cleaned. We called the front desk, and she gladly let us switch to a different room. 
+After putting all of our stuff in the new room, I checked the bathroom. No razor this time, but you could easily tell that it had not been cleaned. I am in housekeeping, so I understand that things get missed sometimes. But there is no reason why two "clean" rooms should have dirty toilets.  After I cleaned the toilet, my husband went in to take a shower.  There was only hot water, which wouldn't have been bad if it didn't feel like it was 100 degrees outside. 
+Now slightly aggravated, we go downstairs to get ice so we can fix a cup of water and go to bed. The ice machine is broken....This was our second choice motel when my husband and I stayed here. Because of no vacancy at the first one, we came here since it was around the same price and nearby. We had stayed here before, before it was remodeled. The woman working the front desk was very friendly. We got a queen single bed on the second floor. As soon as we walked it, it looked great. We weren't even in the room for 5 minutes when my husband walked into the bathroom and saw a razor blade in the bottom of the toilet. Not only was that disgusting, that also tells me the toilet had not been cleaned. We called the front desk, and she gladly let us switch to a different room. After putting all of our stuff in the new room, I checked the bathroom. No razor this time, but you could easily tell that it had not been cleaned. I am in housekeeping, so I understand that things get missed sometimes. But there is no reason why two "clean" rooms should have dirty toilets.  After I cleaned the toilet, my husband went in to take a shower.  There was only hot water, which wouldn't have been bad if it didn't feel like it was 100 degrees outside. Now slightly aggravated, we go downstairs to get ice so we can fix a cup of water and go to bed. The ice machine is broken. Dirty toilet, no cold water, and no ice. We definitely were not happy. I go back to the front desk to pay the $3.00 for a wifi code. Instead of telling us before we checked in, we find out an hour afterwards that the Wifi has been down. This is when we requested our money back and went to the old hotel across the street. It might not have been as updated, but I would much rather stay in an older hotel that actually has functioning amenities.  I will NEVER stay at another Motel 6. This motel deserves ZERO stars. Absolutely disgusting. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r228183872-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>228183872</t>
+  </si>
+  <si>
+    <t>"UNACCEPTABLE"</t>
+  </si>
+  <si>
+    <t>I couldn't believe it!!!! We booked the room online. That was a big mistake! The room had No Amenities at all! I'm glad we only booked the room for 1 night.  They  had bugs in the room and on the bed! The bed was touching the ac unit .  The ac was making a loud noise all night. We went to the pool with my granddaughters, when we  told by a police officer that we were too noisy. It wasn't even 9:00. the officer told us that they were only keeping the pool open until 9:30 pm cause of it being hot. The sign said the pool didn't close until 9:30. There was No ice in the ice machine, even after a hour of waiting. The front desk said the reason there was no ice is due to people filling up ice chest.They had only 6 channels on the t.v.  We will never stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I couldn't believe it!!!! We booked the room online. That was a big mistake! The room had No Amenities at all! I'm glad we only booked the room for 1 night.  They  had bugs in the room and on the bed! The bed was touching the ac unit .  The ac was making a loud noise all night. We went to the pool with my granddaughters, when we  told by a police officer that we were too noisy. It wasn't even 9:00. the officer told us that they were only keeping the pool open until 9:30 pm cause of it being hot. The sign said the pool didn't close until 9:30. There was No ice in the ice machine, even after a hour of waiting. The front desk said the reason there was no ice is due to people filling up ice chest.They had only 6 channels on the t.v.  We will never stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r218115215-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>218115215</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Navy Reunion in Myrtle Beach SC</t>
+  </si>
+  <si>
+    <t>9/18/10The wife and I are heading for my Navy Reunion in Myrtle Beach SC. We stopped here our forth night out.  The service was friendly, Room was clean and quite. Got a good night sleep.Cap &amp; Virginia</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r214276516-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>214276516</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>a bit scary</t>
+  </si>
+  <si>
+    <t>no amenities what so ever.  and lots and lots of police presence. the police  even  lock the pool at night.  on any given day there are several officers present.  Saturday there were about 6  or more.  I thought the place was a police substation or it was owned by the PBA.  the desk says it is for everyone's safety.  a bit heavy</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r212177777-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>212177777</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t>We stayed one night here &amp; left. Not clean, they'd changed sheets, etc but the rooms were just not clean &amp; they smelled. Someone was smoking crack or something during the night, we could smell it really strong. It wasn't in the hall but coming in through our vents. The staff did not care. It has a tiny box tv. 2 towels in bathroom. Bathroom door would not close, not just that it wouldn't latch, it would not fit into the door frame! They did not honor the price it gave us online. I will never, never stay here or at a Motel 6 again.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r211855328-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>211855328</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>ONLY IF YOU HAVE TOO</t>
+  </si>
+  <si>
+    <t>My wife and I had tried to get a hotel room for the night on 6/21/14 from from Biloxi Ms to Slidell  La but because of Huge car show and afterwards a concert in Biloxi there were no rooms availiable anywhere  on our last try we stopped at Hotel 6 in slidell and got the last room they had left,The room was tiny with both beds against opposing walls there was just 3 feet of room between the beds, the shower was tiny and ackward looking, there were no alarm clock, no shampoo, no coffee pot, no iron but room was very clean the ac and tv  worked great, beds were very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I had tried to get a hotel room for the night on 6/21/14 from from Biloxi Ms to Slidell  La but because of Huge car show and afterwards a concert in Biloxi there were no rooms availiable anywhere  on our last try we stopped at Hotel 6 in slidell and got the last room they had left,The room was tiny with both beds against opposing walls there was just 3 feet of room between the beds, the shower was tiny and ackward looking, there were no alarm clock, no shampoo, no coffee pot, no iron but room was very clean the ac and tv  worked great, beds were very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r211159046-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>211159046</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Good job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the first-time ever I am happy to give this motel 6 a 4 in the ratings due to the nice staff and the newly renovated rooms the desk is the reason 4 the 4 instead of 5 on the review rating they they kept the old desk and nightstand but everything else is new or new looking explain ac works great there's not a single cockroach in science the door is a little bowed though on room 280  not going to seal all the way but  that's okay still a nice room for a motel 6 </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r206230061-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206230061</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Value Priced</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights and had a very good experience with the staff and our stay as a whole. We arrived later in the evening and our reservation was on hand and correct. Our room was back in the opposite corner of the property from the front desk and was very quiet. We chose a room with one bed so as to give our pets a little more floor room. The room was clean as well as the Linen. Motel 6 has some of the smallest showers available, BUT, they had never ending hot water, that was awesome! The bed was not as firm as I would have liked, but we were able to a good nights rest on it. The Pillows could be a little firmer, but we did have enough of them to make up for their softness, 4 of them. Our AC unit was a bit noisy but functioned perfectly in the LA heat. The TV is a bit outdated but the picture and reception were very clear. We stayed here on our trip to New Orleans because it was located to best suit our travel plans. The next morning we were called by the front desk (9am) to ask if we needed room service for that day, we told them no but that we would refresh our towels when we got back from our outing. I found this to be awesome! We saved the...We stayed here for four nights and had a very good experience with the staff and our stay as a whole. We arrived later in the evening and our reservation was on hand and correct. Our room was back in the opposite corner of the property from the front desk and was very quiet. We chose a room with one bed so as to give our pets a little more floor room. The room was clean as well as the Linen. Motel 6 has some of the smallest showers available, BUT, they had never ending hot water, that was awesome! The bed was not as firm as I would have liked, but we were able to a good nights rest on it. The Pillows could be a little firmer, but we did have enough of them to make up for their softness, 4 of them. Our AC unit was a bit noisy but functioned perfectly in the LA heat. The TV is a bit outdated but the picture and reception were very clear. We stayed here on our trip to New Orleans because it was located to best suit our travel plans. The next morning we were called by the front desk (9am) to ask if we needed room service for that day, we told them no but that we would refresh our towels when we got back from our outing. I found this to be awesome! We saved the planet some water and our pets went undisturbed while we were away. We actually were asked each day if we needed service and to each we declined except for towel service, I liked that option very much! This property has a pool, but we did not have time to take a dip in it so I don't the condition of the pool. Our four nights went by without a problem, we were able to get a hold housekeeping when we needed towels and the Front Desk was always available when we called. Our overall experience was a very good one and would stay here again in the future if we are in the area!  This property has a night time security service on site throughout the night. Yes, you are safe here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights and had a very good experience with the staff and our stay as a whole. We arrived later in the evening and our reservation was on hand and correct. Our room was back in the opposite corner of the property from the front desk and was very quiet. We chose a room with one bed so as to give our pets a little more floor room. The room was clean as well as the Linen. Motel 6 has some of the smallest showers available, BUT, they had never ending hot water, that was awesome! The bed was not as firm as I would have liked, but we were able to a good nights rest on it. The Pillows could be a little firmer, but we did have enough of them to make up for their softness, 4 of them. Our AC unit was a bit noisy but functioned perfectly in the LA heat. The TV is a bit outdated but the picture and reception were very clear. We stayed here on our trip to New Orleans because it was located to best suit our travel plans. The next morning we were called by the front desk (9am) to ask if we needed room service for that day, we told them no but that we would refresh our towels when we got back from our outing. I found this to be awesome! We saved the...We stayed here for four nights and had a very good experience with the staff and our stay as a whole. We arrived later in the evening and our reservation was on hand and correct. Our room was back in the opposite corner of the property from the front desk and was very quiet. We chose a room with one bed so as to give our pets a little more floor room. The room was clean as well as the Linen. Motel 6 has some of the smallest showers available, BUT, they had never ending hot water, that was awesome! The bed was not as firm as I would have liked, but we were able to a good nights rest on it. The Pillows could be a little firmer, but we did have enough of them to make up for their softness, 4 of them. Our AC unit was a bit noisy but functioned perfectly in the LA heat. The TV is a bit outdated but the picture and reception were very clear. We stayed here on our trip to New Orleans because it was located to best suit our travel plans. The next morning we were called by the front desk (9am) to ask if we needed room service for that day, we told them no but that we would refresh our towels when we got back from our outing. I found this to be awesome! We saved the planet some water and our pets went undisturbed while we were away. We actually were asked each day if we needed service and to each we declined except for towel service, I liked that option very much! This property has a pool, but we did not have time to take a dip in it so I don't the condition of the pool. Our four nights went by without a problem, we were able to get a hold housekeeping when we needed towels and the Front Desk was always available when we called. Our overall experience was a very good one and would stay here again in the future if we are in the area!  This property has a night time security service on site throughout the night. Yes, you are safe here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r205615778-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>205615778</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for the price </t>
+  </si>
+  <si>
+    <t>It is pretty clean for a motel 6 in this room am in at least it is better off than the last Motel 6 I stayed in last night the only thing I would change is the 1985 ac unit and the bed .and I would upgrade to TV .its got a 19 inch tube style I haven't seen any bugs yet ,all the lights actually work in this one, so it's off to bed I go. if you're on a budget I would suggest this one check the room first you never know this room could be different from the next</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r201491836-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201491836</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>The WORST most DISGUSTING place I've ever stayed in!!! Ever!!!</t>
+  </si>
+  <si>
+    <t>We arrived in the middle of the night around 2am. We all were so tired but were smart enough to book these rooms before departure. To start there weren't any smoke free rooms. The room smelled like cigarette smoke and a fishy, musty person who hadn't showered in weeks mixed together. I could barely breath! It was a double bed room. My daughters bed was pushed right up to the AC unit which had alot of dead bugs in it and on the top of her comforter. I told her she could sleep with me although we both started to feel tears in our eyes from the immediate dissapointment of this Motels first impression! I went to use the restroom next just to find out that the toilet was broken. Right then and there I had ENOUGH!!! I looked around and saw how filthy the floor was. There were bad cigarette stains on the linens and the comforters. The room phone didn't work. It was starting to feel like we were in a horror film scene from Vacancy minus the serial killers! HORRIBLE!
+ We retrieved our luggage and went to the front desk to request a different room. There was only one room left but oh my gosh it was no better!!! The hotel room two doors down was wide open with no lights on and a missing TV!! The door looked as if it had been PRIED open!! REALLY!!...We arrived in the middle of the night around 2am. We all were so tired but were smart enough to book these rooms before departure. To start there weren't any smoke free rooms. The room smelled like cigarette smoke and a fishy, musty person who hadn't showered in weeks mixed together. I could barely breath! It was a double bed room. My daughters bed was pushed right up to the AC unit which had alot of dead bugs in it and on the top of her comforter. I told her she could sleep with me although we both started to feel tears in our eyes from the immediate dissapointment of this Motels first impression! I went to use the restroom next just to find out that the toilet was broken. Right then and there I had ENOUGH!!! I looked around and saw how filthy the floor was. There were bad cigarette stains on the linens and the comforters. The room phone didn't work. It was starting to feel like we were in a horror film scene from Vacancy minus the serial killers! HORRIBLE! We retrieved our luggage and went to the front desk to request a different room. There was only one room left but oh my gosh it was no better!!! The hotel room two doors down was wide open with no lights on and a missing TV!! The door looked as if it had been PRIED open!! REALLY!! There was a C shaped, large dent by the bolt lock from the outside! I opened the door and that same funky, musty fish, stale strong cigarette odor hit us dead in the face! The table they had was badly chipped and should have been outside to give away for FREE! The bed had other peoples nose or pubic hairs still in the linens. Again, there were bad cigarette burns on the linens, especially the comforter. This time we only had one bed far away from the nasty AC which was the ONLY improvement! The bathroom was not cleaned well at all. One of the rags had a light brown stain on it! We did not shower. We could still see hairs in the shower and it didn't appear to have been recently disinfected/cleaned at all! Plus the shower was ridiculously small. The PILLOWS were hard as a ROCK!!! Very UNCOMFORTABLE! We ended up having to stay because my band manager couldn't find anywhere else to stay that wasn't dirt cheap that late at night. I barely slept because I had to keep watch on the door because the bolt lock did NOT work! All that was protecting us from the thief that probably took the TV two doors down or the one who tried to open our own room door at some point was the silver latch you close when you enter most motel rooms! To top it off 2 more rooms were reserved. Same smell, filth, no working bolt on one of the other room doors either and he had a wife and 3 kids in that room!  The third reserved room was the same one that had no lights with the door left WIDE open! When my band mate WALKED into it because the door was left OPEN he saw that and the fact there was no TV. The air QUALITY in my room was so bad that I had to take a benadryl and woke up the next morning coughing up filth! I had to open the door and sit right by it to get fresh air!  It doesn't even deserve 1 star but I had NO CHOICE! This motel 6 made such a BAD impression on me that I'm personally haunted now and will not be staying in ANY motel 6 for quite awhile! I simply don't appreciate someone letting people reserve rooms in an unsafe, unclean, nonworking property! I smell GREED! Close this place down COMPLETELY! Finish the remodel that you are starting which has yet to update any rooms one can comfortably stay in and REOPEN! Oh and it wouldn't hurt to have people on hand to help with ammenities and cleaning services! Each room was dirty and UNCOMFORTABLE and there was NO ONE there to help make ANY of us become more COMFORTABLE! Whoever is cleaning needs to be retrained or FIRED if that's the best they can do! That's the civil thing to do! That's the right thing to do! It shows some PRIDE in your chain! The only way you could stay here is if you have a registered gun and a license to protect yourself and don't mind pure disgust! They obviously don't think paying patrons are important enough to feel SAFE!  When I told them I had no dead bolt they told me there's a cop that comes by every now and then! WOW!!  NEVER AGAIN!!! Next time I will stay in New Orleans at a bed n breakfast. ABSOLUTELY STAY AWAY FROM THIS PLACE!!! It's not necessarily cheap and I wouldn't even pay $1 to stay there again in it's current stage!!! MAJOR DISSAPOINTMENT!!! THUMBS 6 FEET DOWN FOR THIS MOTEL 6!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived in the middle of the night around 2am. We all were so tired but were smart enough to book these rooms before departure. To start there weren't any smoke free rooms. The room smelled like cigarette smoke and a fishy, musty person who hadn't showered in weeks mixed together. I could barely breath! It was a double bed room. My daughters bed was pushed right up to the AC unit which had alot of dead bugs in it and on the top of her comforter. I told her she could sleep with me although we both started to feel tears in our eyes from the immediate dissapointment of this Motels first impression! I went to use the restroom next just to find out that the toilet was broken. Right then and there I had ENOUGH!!! I looked around and saw how filthy the floor was. There were bad cigarette stains on the linens and the comforters. The room phone didn't work. It was starting to feel like we were in a horror film scene from Vacancy minus the serial killers! HORRIBLE!
+ We retrieved our luggage and went to the front desk to request a different room. There was only one room left but oh my gosh it was no better!!! The hotel room two doors down was wide open with no lights on and a missing TV!! The door looked as if it had been PRIED open!! REALLY!!...We arrived in the middle of the night around 2am. We all were so tired but were smart enough to book these rooms before departure. To start there weren't any smoke free rooms. The room smelled like cigarette smoke and a fishy, musty person who hadn't showered in weeks mixed together. I could barely breath! It was a double bed room. My daughters bed was pushed right up to the AC unit which had alot of dead bugs in it and on the top of her comforter. I told her she could sleep with me although we both started to feel tears in our eyes from the immediate dissapointment of this Motels first impression! I went to use the restroom next just to find out that the toilet was broken. Right then and there I had ENOUGH!!! I looked around and saw how filthy the floor was. There were bad cigarette stains on the linens and the comforters. The room phone didn't work. It was starting to feel like we were in a horror film scene from Vacancy minus the serial killers! HORRIBLE! We retrieved our luggage and went to the front desk to request a different room. There was only one room left but oh my gosh it was no better!!! The hotel room two doors down was wide open with no lights on and a missing TV!! The door looked as if it had been PRIED open!! REALLY!! There was a C shaped, large dent by the bolt lock from the outside! I opened the door and that same funky, musty fish, stale strong cigarette odor hit us dead in the face! The table they had was badly chipped and should have been outside to give away for FREE! The bed had other peoples nose or pubic hairs still in the linens. Again, there were bad cigarette burns on the linens, especially the comforter. This time we only had one bed far away from the nasty AC which was the ONLY improvement! The bathroom was not cleaned well at all. One of the rags had a light brown stain on it! We did not shower. We could still see hairs in the shower and it didn't appear to have been recently disinfected/cleaned at all! Plus the shower was ridiculously small. The PILLOWS were hard as a ROCK!!! Very UNCOMFORTABLE! We ended up having to stay because my band manager couldn't find anywhere else to stay that wasn't dirt cheap that late at night. I barely slept because I had to keep watch on the door because the bolt lock did NOT work! All that was protecting us from the thief that probably took the TV two doors down or the one who tried to open our own room door at some point was the silver latch you close when you enter most motel rooms! To top it off 2 more rooms were reserved. Same smell, filth, no working bolt on one of the other room doors either and he had a wife and 3 kids in that room!  The third reserved room was the same one that had no lights with the door left WIDE open! When my band mate WALKED into it because the door was left OPEN he saw that and the fact there was no TV. The air QUALITY in my room was so bad that I had to take a benadryl and woke up the next morning coughing up filth! I had to open the door and sit right by it to get fresh air!  It doesn't even deserve 1 star but I had NO CHOICE! This motel 6 made such a BAD impression on me that I'm personally haunted now and will not be staying in ANY motel 6 for quite awhile! I simply don't appreciate someone letting people reserve rooms in an unsafe, unclean, nonworking property! I smell GREED! Close this place down COMPLETELY! Finish the remodel that you are starting which has yet to update any rooms one can comfortably stay in and REOPEN! Oh and it wouldn't hurt to have people on hand to help with ammenities and cleaning services! Each room was dirty and UNCOMFORTABLE and there was NO ONE there to help make ANY of us become more COMFORTABLE! Whoever is cleaning needs to be retrained or FIRED if that's the best they can do! That's the civil thing to do! That's the right thing to do! It shows some PRIDE in your chain! The only way you could stay here is if you have a registered gun and a license to protect yourself and don't mind pure disgust! They obviously don't think paying patrons are important enough to feel SAFE!  When I told them I had no dead bolt they told me there's a cop that comes by every now and then! WOW!!  NEVER AGAIN!!! Next time I will stay in New Orleans at a bed n breakfast. ABSOLUTELY STAY AWAY FROM THIS PLACE!!! It's not necessarily cheap and I wouldn't even pay $1 to stay there again in it's current stage!!! MAJOR DISSAPOINTMENT!!! THUMBS 6 FEET DOWN FOR THIS MOTEL 6!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r198161168-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>198161168</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>VACATION</t>
+  </si>
+  <si>
+    <t>The staff was very nice especially Chelsea at the front desk. She treated my family as if we were family. This is what I call true hospitality. She went beyond the call of duty even though the hotel was completely booked up she treated us as if we were v.i.p. We will definitely be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r197783387-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197783387</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Nice room, nice location outside New Orleans. Friendly service!</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband and pitt-bull on a cross-country road trip. I liked the room; The door opened up to the outside world which was nice. Couldn't hear the neighbours or the highway, I ran the room fan all night. The windows don't open there which is a bummer. I had a non-smoking room which smelled clean. The hotel is worn but in a good way. Room had a corner shower with no tub, and the shower was really nice. Clean, other than a few stray hairs on the towels. I think the cleaning staff was a little strained due to a large influx of military personnel and St. Patrick's Day revellers on top of that, so the hotel was quite busy. The parking lot was full! It was safe, there were kids running around and having fun jumping and fighting on beds with the doors open. The bathmat was wet even though we hadn't showered yet, but I attribute that to the water that would get on the floor from the curtain. I don't believe it was used, because everything else was clean. Non-carpeted floors were nice, because it was quite warm while I was there. The staff were really polite and cheerful, even joked a bit with us. Wireless was extra at this location so I opted out. Close enough to New Orleans for a quick day trip in-and-out and close to the highway for an...I stayed here with my husband and pitt-bull on a cross-country road trip. I liked the room; The door opened up to the outside world which was nice. Couldn't hear the neighbours or the highway, I ran the room fan all night. The windows don't open there which is a bummer. I had a non-smoking room which smelled clean. The hotel is worn but in a good way. Room had a corner shower with no tub, and the shower was really nice. Clean, other than a few stray hairs on the towels. I think the cleaning staff was a little strained due to a large influx of military personnel and St. Patrick's Day revellers on top of that, so the hotel was quite busy. The parking lot was full! It was safe, there were kids running around and having fun jumping and fighting on beds with the doors open. The bathmat was wet even though we hadn't showered yet, but I attribute that to the water that would get on the floor from the curtain. I don't believe it was used, because everything else was clean. Non-carpeted floors were nice, because it was quite warm while I was there. The staff were really polite and cheerful, even joked a bit with us. Wireless was extra at this location so I opted out. Close enough to New Orleans for a quick day trip in-and-out and close to the highway for an easy stop on a longer trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband and pitt-bull on a cross-country road trip. I liked the room; The door opened up to the outside world which was nice. Couldn't hear the neighbours or the highway, I ran the room fan all night. The windows don't open there which is a bummer. I had a non-smoking room which smelled clean. The hotel is worn but in a good way. Room had a corner shower with no tub, and the shower was really nice. Clean, other than a few stray hairs on the towels. I think the cleaning staff was a little strained due to a large influx of military personnel and St. Patrick's Day revellers on top of that, so the hotel was quite busy. The parking lot was full! It was safe, there were kids running around and having fun jumping and fighting on beds with the doors open. The bathmat was wet even though we hadn't showered yet, but I attribute that to the water that would get on the floor from the curtain. I don't believe it was used, because everything else was clean. Non-carpeted floors were nice, because it was quite warm while I was there. The staff were really polite and cheerful, even joked a bit with us. Wireless was extra at this location so I opted out. Close enough to New Orleans for a quick day trip in-and-out and close to the highway for an...I stayed here with my husband and pitt-bull on a cross-country road trip. I liked the room; The door opened up to the outside world which was nice. Couldn't hear the neighbours or the highway, I ran the room fan all night. The windows don't open there which is a bummer. I had a non-smoking room which smelled clean. The hotel is worn but in a good way. Room had a corner shower with no tub, and the shower was really nice. Clean, other than a few stray hairs on the towels. I think the cleaning staff was a little strained due to a large influx of military personnel and St. Patrick's Day revellers on top of that, so the hotel was quite busy. The parking lot was full! It was safe, there were kids running around and having fun jumping and fighting on beds with the doors open. The bathmat was wet even though we hadn't showered yet, but I attribute that to the water that would get on the floor from the curtain. I don't believe it was used, because everything else was clean. Non-carpeted floors were nice, because it was quite warm while I was there. The staff were really polite and cheerful, even joked a bit with us. Wireless was extra at this location so I opted out. Close enough to New Orleans for a quick day trip in-and-out and close to the highway for an easy stop on a longer trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r190047854-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>190047854</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Not sure where to go here.</t>
+  </si>
+  <si>
+    <t>The hotel is well kept, and I had a good stay.  The employees were great and the room was in almost newly renovated condition.  They gave me exactly what I had requested, a room away from traffic on an open floor, and it was close to places to eat (although on Christmas most were closed and on the other days the traffic was heavy on the main drag).But something about the constant placement of a cop car in the front parking lot in the evening and the four cop cars that were evicting a guest from a room in another section kind on my first night thee made me a little nervous.  I was glad for the security, but why all the overkill unless it was necessary?Still, it was a good value and I had no problems, so I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>The hotel is well kept, and I had a good stay.  The employees were great and the room was in almost newly renovated condition.  They gave me exactly what I had requested, a room away from traffic on an open floor, and it was close to places to eat (although on Christmas most were closed and on the other days the traffic was heavy on the main drag).But something about the constant placement of a cop car in the front parking lot in the evening and the four cop cars that were evicting a guest from a room in another section kind on my first night thee made me a little nervous.  I was glad for the security, but why all the overkill unless it was necessary?Still, it was a good value and I had no problems, so I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r188519351-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>188519351</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Can't get better for $40.  Good parking, no problems, next to Taco Bell.  I slept well.  Room was quiet.  Everything worked (like TV, shower, etc.)  Pretty close to New Orleans (was about 30 minutes away.)  Very easy to find and get to.  I was happy with my one night stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r180741428-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>180741428</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>In the top 10% of all Motel 6's</t>
+  </si>
+  <si>
+    <t>We like Motel 6's due to their pet friendly policy. This property was spotless and staffed by a very competent crew. In spite of the apparent renovations underway, our room was clean and comfortable. Very close to numerous dining opportunities.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r179649805-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>179649805</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t>Clean room. Really cold a/c :). Lots of towels. We are older so it was great that we were located close to the office, ice machine &amp; laundry..very convenient. Friendly staff. Right off the I-10...easy on, easy off. Suggestion: perhaps a larger guest laundry room. Only complaint: had to pay extra for WiFi.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r179538968-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>179538968</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Night shift woman needs a slap to the face, a kick in the a$$, &amp; a major overhaul on her attitude!!!</t>
+  </si>
+  <si>
+    <t>Stopped and asked for double room and a key to see room beforehand.  I was not pleased with it, but my mother who is traveling with me was very tired and said let's stay anyway. Went to purchase room and she asked if I wanted it. Told her I guess it will do.  She then proceeded to throw and slam everything at me and when she finally gave me my receipt she shoved it under the window and slammed it shut. No have a nice night, no thanks for staying with us, enjoy your stay, nothing!!! I walked to the car extremely agitated and told my mother if the woman had thrown one more thing at me she would have gotten it thrown right back!! Beds are EXTREMELY uncomfortable. Rooms are tiny and even though I asked for non smoking there is an ashtray in the room. No mini fridge, coffee maker, hair dryer, nothing.  TV is from the stone ages and the clothes rack is literally falling off the wall. I always check the bed for bed bugs and when I checked the room out before purchasing I thankfully didn't find any, but after getting the room and then going to get into the god awful uncomfortable bed I pulled the covers back to find hair after hair after hair, along with either eyelash or eyebrow hairs everywhere!!! Disgusting!!  Thankfully, I brought my own pillow and I would have...Stopped and asked for double room and a key to see room beforehand.  I was not pleased with it, but my mother who is traveling with me was very tired and said let's stay anyway. Went to purchase room and she asked if I wanted it. Told her I guess it will do.  She then proceeded to throw and slam everything at me and when she finally gave me my receipt she shoved it under the window and slammed it shut. No have a nice night, no thanks for staying with us, enjoy your stay, nothing!!! I walked to the car extremely agitated and told my mother if the woman had thrown one more thing at me she would have gotten it thrown right back!! Beds are EXTREMELY uncomfortable. Rooms are tiny and even though I asked for non smoking there is an ashtray in the room. No mini fridge, coffee maker, hair dryer, nothing.  TV is from the stone ages and the clothes rack is literally falling off the wall. I always check the bed for bed bugs and when I checked the room out before purchasing I thankfully didn't find any, but after getting the room and then going to get into the god awful uncomfortable bed I pulled the covers back to find hair after hair after hair, along with either eyelash or eyebrow hairs everywhere!!! Disgusting!!  Thankfully, I brought my own pillow and I would have actually left had my mother not been so tired and already in her bed. Needless to say, sleeping in the car would have been more comfortable and less aggravating than dealing with that rude clerk in the office!! Ugh!!! Come on Motel 6!!! You have always been good, but just because it N'awlins doesn't mean you get to slack off!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 New Orleans- Slidell, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Stopped and asked for double room and a key to see room beforehand.  I was not pleased with it, but my mother who is traveling with me was very tired and said let's stay anyway. Went to purchase room and she asked if I wanted it. Told her I guess it will do.  She then proceeded to throw and slam everything at me and when she finally gave me my receipt she shoved it under the window and slammed it shut. No have a nice night, no thanks for staying with us, enjoy your stay, nothing!!! I walked to the car extremely agitated and told my mother if the woman had thrown one more thing at me she would have gotten it thrown right back!! Beds are EXTREMELY uncomfortable. Rooms are tiny and even though I asked for non smoking there is an ashtray in the room. No mini fridge, coffee maker, hair dryer, nothing.  TV is from the stone ages and the clothes rack is literally falling off the wall. I always check the bed for bed bugs and when I checked the room out before purchasing I thankfully didn't find any, but after getting the room and then going to get into the god awful uncomfortable bed I pulled the covers back to find hair after hair after hair, along with either eyelash or eyebrow hairs everywhere!!! Disgusting!!  Thankfully, I brought my own pillow and I would have...Stopped and asked for double room and a key to see room beforehand.  I was not pleased with it, but my mother who is traveling with me was very tired and said let's stay anyway. Went to purchase room and she asked if I wanted it. Told her I guess it will do.  She then proceeded to throw and slam everything at me and when she finally gave me my receipt she shoved it under the window and slammed it shut. No have a nice night, no thanks for staying with us, enjoy your stay, nothing!!! I walked to the car extremely agitated and told my mother if the woman had thrown one more thing at me she would have gotten it thrown right back!! Beds are EXTREMELY uncomfortable. Rooms are tiny and even though I asked for non smoking there is an ashtray in the room. No mini fridge, coffee maker, hair dryer, nothing.  TV is from the stone ages and the clothes rack is literally falling off the wall. I always check the bed for bed bugs and when I checked the room out before purchasing I thankfully didn't find any, but after getting the room and then going to get into the god awful uncomfortable bed I pulled the covers back to find hair after hair after hair, along with either eyelash or eyebrow hairs everywhere!!! Disgusting!!  Thankfully, I brought my own pillow and I would have actually left had my mother not been so tired and already in her bed. Needless to say, sleeping in the car would have been more comfortable and less aggravating than dealing with that rude clerk in the office!! Ugh!!! Come on Motel 6!!! You have always been good, but just because it N'awlins doesn't mean you get to slack off!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r163562708-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>163562708</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Avoid if possible.</t>
+  </si>
+  <si>
+    <t>I have stayed in many motel 6 around the country, and it has always been a hit or miss as far as quality of them. This motel 6 in Slidell is on the bottom of my list. Room was tiny, beds were very uncomfortable and one sounded like it had a broken spring or two. Bathroom was large, and it's the only room I have stayed in that comes equipped with a bottle opener attached to the sink. There was even an old rusted razor blade laying on the walkway outside our room under the air conditioner. WiFi was also $2.99 here, seems only the bad motel 6 I've stayed in charge for WiFi.This is the only place I have stayed where I refuse to leave my dogs in the room when I go visit the nearby attractions. Did not feel safe at all. Did not feel safe at all. So if you are in the area, look for a different place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I have stayed in many motel 6 around the country, and it has always been a hit or miss as far as quality of them. This motel 6 in Slidell is on the bottom of my list. Room was tiny, beds were very uncomfortable and one sounded like it had a broken spring or two. Bathroom was large, and it's the only room I have stayed in that comes equipped with a bottle opener attached to the sink. There was even an old rusted razor blade laying on the walkway outside our room under the air conditioner. WiFi was also $2.99 here, seems only the bad motel 6 I've stayed in charge for WiFi.This is the only place I have stayed where I refuse to leave my dogs in the room when I go visit the nearby attractions. Did not feel safe at all. Did not feel safe at all. So if you are in the area, look for a different place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r158319254-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>158319254</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>GOOD VALUE, GREAT SERVICE</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here a few times to rest and relax. It is a simple motel and the price is reasonable and affordable. The only negative is that the rooms only have showers and no bathtubs, but no big deal. The desk clerks are always kind, polite, and helpful to us. If we ask for extra towels or an extra pillow, they got it for us. They also recommend good places to eat and get take-out food. If we are in the area, we will definitely stay here again. Thank you Motel 6 for your kind hospitality.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r151507876-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>151507876</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>No hot water</t>
+  </si>
+  <si>
+    <t>Room is tiny  stayed here over night do we could see new Orleans, on our way back to bossier city and then home to Snyder Texas  but when I went to take a shower the hour water ran out with in five minutes. And didn't have any from 11 pm until we went to bed at 2am.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r146113595-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>146113595</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>New look, but disappointing</t>
+  </si>
+  <si>
+    <t>This Motel 6 has new looking rooms but, they are so bare that your voice echoes in the room. There are no pictures on the walls, no tissues, no hair dryers, no clock, or clock radio.....it seems all the standard amenities they have done away with. I went to the front desk to ask for a hair dryer and they do not even have any on the premises. Also, they have started charging for wifi. I asked the front desk if they could print out a copy of a receipt for a ticket I had purchased on line and they told me they had no way to do that. They do not have Internet in the office. The office staff is also not very friendly or accommodating. I would not likely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This Motel 6 has new looking rooms but, they are so bare that your voice echoes in the room. There are no pictures on the walls, no tissues, no hair dryers, no clock, or clock radio.....it seems all the standard amenities they have done away with. I went to the front desk to ask for a hair dryer and they do not even have any on the premises. Also, they have started charging for wifi. I asked the front desk if they could print out a copy of a receipt for a ticket I had purchased on line and they told me they had no way to do that. They do not have Internet in the office. The office staff is also not very friendly or accommodating. I would not likely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r134256856-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>134256856</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Super Cheap, Amazingly Clean</t>
+  </si>
+  <si>
+    <t>This is an unbelievable deal!  Everything was great, the only minor issue was the bed was a little lumpy, but everything else was superb!!!  I'll be back, I travel monthly do this will be my stopping place from here on out!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r131358428-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>131358428</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>New hotel close to the city</t>
+  </si>
+  <si>
+    <t>This new hotel is not your usual Motel 6. Rooms are larger and inspire more comfort. Free parking, free WiFi, free breakfast (basic). The French Quarter is only 10 minutes away by car. The only possible minus is the proximity to the Interstate, the night can be noisy...</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r130912536-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>130912536</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Unfortunate smell</t>
+  </si>
+  <si>
+    <t>As a general rule, at Motel 6 you get what you pay for:  no frills, a place to get some sleep and take a shower.  The stay at this one was painful.  The smell of stale urine was overpowering.  It seemed to emanate from the room itself.  Leaving the fan on full blast made the stay tolerable, but just barely.  I hope management will make the effort to correct the problem.  The staff at this facility was night-and-day different, too.  The night clerk was surly and hostile, and we weren't allowed to check out the room in advance  -- his attitude was "take it or leave it."  The day clerk was helpful, receptive and concerned about the condition of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a general rule, at Motel 6 you get what you pay for:  no frills, a place to get some sleep and take a shower.  The stay at this one was painful.  The smell of stale urine was overpowering.  It seemed to emanate from the room itself.  Leaving the fan on full blast made the stay tolerable, but just barely.  I hope management will make the effort to correct the problem.  The staff at this facility was night-and-day different, too.  The night clerk was surly and hostile, and we weren't allowed to check out the room in advance  -- his attitude was "take it or leave it."  The day clerk was helpful, receptive and concerned about the condition of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r128365230-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128365230</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Convenient to New Orleans</t>
+  </si>
+  <si>
+    <t>A few buddies and I decided to take the trip down to New Orleans to support our Kentucky Wildcats in the Final Four.  Of course, most hotel/motels in and around New Orleans were either booked or cost $500/night to stay.  However, we were very fortunate to find that this Motel 6 in Slidell had about 10 or so rooms open for the weekend.  We had read so-so reviews, but decided that all we needed was a place to rest our heads at night and shower, so we decided to go ahead and book 2 rooms for $50 a night.  This motel is located VERY conveniently off next to I-10 and we had no problem getting out and driving straight to New Orleans.  We also didn't have any problems with noise, or any other disturbances.  The rooms weren't sparkling clean, but I didn't notice anything out of the way disgusting.  The laminate floors were nice to had other then some dirty carpet.  For the most part, our beds were comfortable enough.Overall, this isn't the best motel/hotel to stay at in the New Orleans area, but it served it's purpose well during the Final Four.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>A few buddies and I decided to take the trip down to New Orleans to support our Kentucky Wildcats in the Final Four.  Of course, most hotel/motels in and around New Orleans were either booked or cost $500/night to stay.  However, we were very fortunate to find that this Motel 6 in Slidell had about 10 or so rooms open for the weekend.  We had read so-so reviews, but decided that all we needed was a place to rest our heads at night and shower, so we decided to go ahead and book 2 rooms for $50 a night.  This motel is located VERY conveniently off next to I-10 and we had no problem getting out and driving straight to New Orleans.  We also didn't have any problems with noise, or any other disturbances.  The rooms weren't sparkling clean, but I didn't notice anything out of the way disgusting.  The laminate floors were nice to had other then some dirty carpet.  For the most part, our beds were comfortable enough.Overall, this isn't the best motel/hotel to stay at in the New Orleans area, but it served it's purpose well during the Final Four.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r127862998-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127862998</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>Exactly average, nothing more but nothing less.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks bad from the outside, but all the rooms have gotten a revamping. Rooms were clean, bathrooms are clean, beds were comfy, the A/C did have a faint urine smell to it. But I would deffently stay here again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r127154589-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127154589</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Worked for US</t>
+  </si>
+  <si>
+    <t>We waited to late to book a room in New Orleans for the Final Four,so this was the only place left,we paid $40.00 a nite and was a lil worried from reading other reviews but it worked for us,like one other review said if all you looking for is a place to shower and sleep can not beat the price,our room was on ground level so we just drove right up to it and it was recently redone,laminate wood floors,no carpet.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r126838816-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126838816</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double with two beds was a single size room with two beds but good bathroom to make up for it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r124026803-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124026803</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights over Mardi Gras. Mardis Gras night was a little pricey but cheapest around last minute. Good price other than that. The Motel was clean and comfortable. Wooden floors, nice bathroom. No free internet but free parking. Close to supermarkets and fast food/ restaurants. Would stay here again</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r113421766-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>113421766</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>VERY DISPLEASED</t>
+  </si>
+  <si>
+    <t>this is one of the worst rooms that I have ever seen..  There was no tub in the room, only a shower . But, the bed that was in the room was the worst.. I have had muscle pain for the last 3 days and I only stayed 1 night.  The hotel is in bad need of upgrading.  The pool has tiles that are missing and children were playing with the emergency floatation items.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r101382411-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>101382411</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>Unless You're Desperate, Keep on Looking</t>
+  </si>
+  <si>
+    <t>We stayed here because we HAD to (we were passing through and it was during Mardi Gras). The exterior of the hotel is dirty-looking, the lobby area was gross, and the rooms were occupied by a lot of shady people. The noise from the interstate is very easy to hear in the rooms of this hotel. There are no amenities, at all. The hotel was pet-friendly, and I do like the hardwood floor vs. being stuck with a dirty carpet. I just would never want to stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r100674957-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>100674957</t>
+  </si>
+  <si>
+    <t>03/18/2011</t>
+  </si>
+  <si>
+    <t>Great Motel, 30 min drive from New Orleans</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights over Mardi Gras.  Mardis Gras night was a little pricey but cheapest around last min. Good price other than that.   The Motel was clean and comfy.  Wooden floors, nice bathroom.  No free net.  Free parking.  Close to supermarkets and fast food/ restaurants.  Would stay here again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r83667682-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>83667682</t>
+  </si>
+  <si>
+    <t>10/15/2010</t>
+  </si>
+  <si>
+    <t>Decent hotel, cheaper than most in the area</t>
+  </si>
+  <si>
+    <t>This is your typical Motel 6.  Good condition. Friendly staff.  Very close to the interstate so you can hear traffic in the rooms.  There were no people loitering as complained of in other reviews.  I like that the rooms have wood floors rather than carpets because nasty, dirty carpets are my usual #1 complaint in cheap motels.  King size bed was comfortable.  At $40 for a single it was cheaper than most NO area motels.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r74552679-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>74552679</t>
+  </si>
+  <si>
+    <t>08/09/2010</t>
+  </si>
+  <si>
+    <t>The Worst, garbage trash,</t>
+  </si>
+  <si>
+    <t>1st lets just start off with the fact that their is a central air condition that really sucks.....
+2nd The water pressure in the shower &amp; the bath in our room was so weak that it took 30 minutes just to wash my face &amp; brush my teeth.  the internet srvc is not easily accessable &amp; when ask about getting a code the receptionist only reply was 299 as if it were a code. When in actuality it cost $2.99 for access code.....There are no screens in the window so don't open the windows for fresh air, so you'll have to endure the poginant smell of Cleaner &amp; Sanitizer..The TV is an average size 13' so do expect any thing spectacular here...
+Also I try to charge my laptop up &amp; discovered that the sockets are dangerously loose &amp; i was afraid to use them so I had to carefully use the one next to the TV cause it was the best fit..
+No...Iron ....No ice...bucket ...no cups.....no screens in the window....no do not disturb signs...
+The Place is fairly clean however the service sucks cus after I came from A couple of round of drinks on bourbon St. upon entering the hotel I  realized that I'm on my own as I stumbled in noticed Gates down in the reception area  &amp; no elevator srvc at all....I felt so volnurable &amp; immediately sobered up. I felt as if the place...1st lets just start off with the fact that their is a central air condition that really sucks.....2nd The water pressure in the shower &amp; the bath in our room was so weak that it took 30 minutes just to wash my face &amp; brush my teeth.  the internet srvc is not easily accessable &amp; when ask about getting a code the receptionist only reply was 299 as if it were a code. When in actuality it cost $2.99 for access code.....There are no screens in the window so don't open the windows for fresh air, so you'll have to endure the poginant smell of Cleaner &amp; Sanitizer..The TV is an average size 13' so do expect any thing spectacular here...Also I try to charge my laptop up &amp; discovered that the sockets are dangerously loose &amp; i was afraid to use them so I had to carefully use the one next to the TV cause it was the best fit..No...Iron ....No ice...bucket ...no cups.....no screens in the window....no do not disturb signs...The Place is fairly clean however the service sucks cus after I came from A couple of round of drinks on bourbon St. upon entering the hotel I  realized that I'm on my own as I stumbled in noticed Gates down in the reception area  &amp; no elevator srvc at all....I felt so volnurable &amp; immediately sobered up. I felt as if the place was completely evacuated..The place is quiet aside from occasional barking from the sounds of animals that are allowed in the facilities.....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>1st lets just start off with the fact that their is a central air condition that really sucks.....
+2nd The water pressure in the shower &amp; the bath in our room was so weak that it took 30 minutes just to wash my face &amp; brush my teeth.  the internet srvc is not easily accessable &amp; when ask about getting a code the receptionist only reply was 299 as if it were a code. When in actuality it cost $2.99 for access code.....There are no screens in the window so don't open the windows for fresh air, so you'll have to endure the poginant smell of Cleaner &amp; Sanitizer..The TV is an average size 13' so do expect any thing spectacular here...
+Also I try to charge my laptop up &amp; discovered that the sockets are dangerously loose &amp; i was afraid to use them so I had to carefully use the one next to the TV cause it was the best fit..
+No...Iron ....No ice...bucket ...no cups.....no screens in the window....no do not disturb signs...
+The Place is fairly clean however the service sucks cus after I came from A couple of round of drinks on bourbon St. upon entering the hotel I  realized that I'm on my own as I stumbled in noticed Gates down in the reception area  &amp; no elevator srvc at all....I felt so volnurable &amp; immediately sobered up. I felt as if the place...1st lets just start off with the fact that their is a central air condition that really sucks.....2nd The water pressure in the shower &amp; the bath in our room was so weak that it took 30 minutes just to wash my face &amp; brush my teeth.  the internet srvc is not easily accessable &amp; when ask about getting a code the receptionist only reply was 299 as if it were a code. When in actuality it cost $2.99 for access code.....There are no screens in the window so don't open the windows for fresh air, so you'll have to endure the poginant smell of Cleaner &amp; Sanitizer..The TV is an average size 13' so do expect any thing spectacular here...Also I try to charge my laptop up &amp; discovered that the sockets are dangerously loose &amp; i was afraid to use them so I had to carefully use the one next to the TV cause it was the best fit..No...Iron ....No ice...bucket ...no cups.....no screens in the window....no do not disturb signs...The Place is fairly clean however the service sucks cus after I came from A couple of round of drinks on bourbon St. upon entering the hotel I  realized that I'm on my own as I stumbled in noticed Gates down in the reception area  &amp; no elevator srvc at all....I felt so volnurable &amp; immediately sobered up. I felt as if the place was completely evacuated..The place is quiet aside from occasional barking from the sounds of animals that are allowed in the facilities.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r37030647-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>37030647</t>
+  </si>
+  <si>
+    <t>08/07/2009</t>
+  </si>
+  <si>
+    <t>Avoid if you want a good night's sleep</t>
+  </si>
+  <si>
+    <t>Arrived and got room w/o problems, many characters walking about carrying alcoholic beverages and being noisy and rowdy.  Neighbor downstairs had large pit bull that barked all the time.  Pool had layer of scum on walls at water line.  Guests were always coming and going, slamming doors and causing problems.  Rooms appeared newly remodeled and clean.  My wife swears there were things crawling in her bed.  Staff was rude but understanding about wanting refund, we left the same night we arrived.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r29946891-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>29946891</t>
+  </si>
+  <si>
+    <t>05/13/2009</t>
+  </si>
+  <si>
+    <t>Lots of loud, rowdy, folks hanging out - avoid it</t>
+  </si>
+  <si>
+    <t>I was looking for a cheap place to crash for a few hours on the way to New Orleans, and chose this Motel 6 over others based on the relatively favorable reviews posted here.  It was a poor choice.   If you've ever stayed at a Motel 6, you know they're all pretty much the same - very cheap but also very predictable.  Fair enough.  My complaint about this location is the very large, very loud, very rowdy crowd hanging out on the sidewalks, in the stairwells, and in the parking lot.  There were dozens of people just hanging around the common areas doing nothing in particular.  I'm a young, single male and don't scare easily, but the property felt very unsafe, and there's no way I'd let my wife of girlfriend stay here.   Apart from the safety issue, there was so much noise that sleep was pretty much impossible.   Management has a serious loitering problem and needs to clean it up if they expect me to stay there again.  No way would I recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I was looking for a cheap place to crash for a few hours on the way to New Orleans, and chose this Motel 6 over others based on the relatively favorable reviews posted here.  It was a poor choice.   If you've ever stayed at a Motel 6, you know they're all pretty much the same - very cheap but also very predictable.  Fair enough.  My complaint about this location is the very large, very loud, very rowdy crowd hanging out on the sidewalks, in the stairwells, and in the parking lot.  There were dozens of people just hanging around the common areas doing nothing in particular.  I'm a young, single male and don't scare easily, but the property felt very unsafe, and there's no way I'd let my wife of girlfriend stay here.   Apart from the safety issue, there was so much noise that sleep was pretty much impossible.   Management has a serious loitering problem and needs to clean it up if they expect me to stay there again.  No way would I recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r19555071-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>19555071</t>
+  </si>
+  <si>
+    <t>08/30/2008</t>
+  </si>
+  <si>
+    <t>Great Place...</t>
+  </si>
+  <si>
+    <t>The staff was very helpful, and the room we had gotten was clean and very nice. I've stayed at other Motel 6's but they were not as nice as this one, I'd stay again if i were heading back threw there.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r7775281-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>7775281</t>
+  </si>
+  <si>
+    <t>06/04/2007</t>
+  </si>
+  <si>
+    <t>extremely basic</t>
+  </si>
+  <si>
+    <t>Stayed here with family for my grandmother's funeral; very last minute.  It was only $50.00 a night which for that I only expect a clean room and not much else.  Rooms were small, but relatively clean.  There was a strong odor of cleaning supplies that seemed to be camoflauged with air freshener, people with allergies beware!    I found several hairs around the room that appeared to be either animal hair or something else....I am hoping animal hair since they allow pets.   Smoke alarm went off after I took a shower, (the steam) and it took forever to get it off!  But the bed was ok and the staff was pretty nice.  I probably won't stay here again because of the hair issues, but if you have pets and are looking for something affordable with no frills, this is the place for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Stayed here with family for my grandmother's funeral; very last minute.  It was only $50.00 a night which for that I only expect a clean room and not much else.  Rooms were small, but relatively clean.  There was a strong odor of cleaning supplies that seemed to be camoflauged with air freshener, people with allergies beware!    I found several hairs around the room that appeared to be either animal hair or something else....I am hoping animal hair since they allow pets.   Smoke alarm went off after I took a shower, (the steam) and it took forever to get it off!  But the bed was ok and the staff was pretty nice.  I probably won't stay here again because of the hair issues, but if you have pets and are looking for something affordable with no frills, this is the place for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r3496250-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3496250</t>
+  </si>
+  <si>
+    <t>05/23/2005</t>
+  </si>
+  <si>
+    <t>It's a Motel 6 - great staff!</t>
+  </si>
+  <si>
+    <t>If you've stayed in a lot of rooms at Motel 6, you know that they're pretty much all standard.  They don't have a lot of amenities.  They're basic, pet-friendly, and clean.  They are our lodging of choice anywhere we go because they allow small dogs, so we've seen them all over the U.S.  The one in Slidell is clean, quiet, and the management staff can't be beat.   The pool is big and they're in a good location for getting to things in Slidell.  We missed our Wednesday afternoon flight out of Los Angeles and ended up having to take the red-eye at 11:30 that night.  I called the Motel 6 in Slidell from my cellphone in the airport, explained that we needed to cancel that night's reservation, and asked if there would be any possibility that we could check in early and try to get some sleep before our friend's rehearsal dinner Thursday evening.  I asked if we could check in around 10am.  The girl told me no problem;  she'd note our reservation.  We showed up at 10, the manager was as sweet as can be, and we were in our room and asleep by 10:15am.Clean place, great staff, and very accomodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you've stayed in a lot of rooms at Motel 6, you know that they're pretty much all standard.  They don't have a lot of amenities.  They're basic, pet-friendly, and clean.  They are our lodging of choice anywhere we go because they allow small dogs, so we've seen them all over the U.S.  The one in Slidell is clean, quiet, and the management staff can't be beat.   The pool is big and they're in a good location for getting to things in Slidell.  We missed our Wednesday afternoon flight out of Los Angeles and ended up having to take the red-eye at 11:30 that night.  I called the Motel 6 in Slidell from my cellphone in the airport, explained that we needed to cancel that night's reservation, and asked if there would be any possibility that we could check in early and try to get some sleep before our friend's rehearsal dinner Thursday evening.  I asked if we could check in around 10am.  The girl told me no problem;  she'd note our reservation.  We showed up at 10, the manager was as sweet as can be, and we were in our room and asleep by 10:15am.Clean place, great staff, and very accomodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d242836-r3298573-Motel_6_New_Orleans_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3298573</t>
+  </si>
+  <si>
+    <t>03/23/2005</t>
+  </si>
+  <si>
+    <t>Franklu, preferred this to the Hyatt</t>
+  </si>
+  <si>
+    <t>We stayed at the Hyatt in NewOrleans and were not impressed. Not hugely impressed with NewOrleans, either, but made a return visit a few months later ... different friend, wanted to see the place, so gave in!M6 Slidell suited me fine. We could dip into New Orleans for an afternoon, for an evening, but retreat over the bridge to Slidell to peace and quiet. Slidell ok, access to other area attractions is good, nice - very nice - pool to cool off after the heat and smell of New Orleans. Recommended</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +2254,5533 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s">
+        <v>211</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>224</v>
+      </c>
+      <c r="X32" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" t="s">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>239</v>
+      </c>
+      <c r="X34" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>253</v>
+      </c>
+      <c r="X36" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>262</v>
+      </c>
+      <c r="X37" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>270</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>270</v>
+      </c>
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" t="s">
+        <v>292</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>270</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L43" t="s">
+        <v>297</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" t="s">
+        <v>303</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J45" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" t="s">
+        <v>307</v>
+      </c>
+      <c r="L45" t="s">
+        <v>308</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>309</v>
+      </c>
+      <c r="O45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>316</v>
+      </c>
+      <c r="O46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" t="s">
+        <v>342</v>
+      </c>
+      <c r="K52" t="s">
+        <v>349</v>
+      </c>
+      <c r="L52" t="s">
+        <v>350</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>345</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" t="s">
+        <v>354</v>
+      </c>
+      <c r="K53" t="s">
+        <v>355</v>
+      </c>
+      <c r="L53" t="s">
+        <v>356</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>357</v>
+      </c>
+      <c r="O53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>358</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" t="s">
+        <v>360</v>
+      </c>
+      <c r="K54" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" t="s">
+        <v>362</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>363</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>364</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>365</v>
+      </c>
+      <c r="J55" t="s">
+        <v>366</v>
+      </c>
+      <c r="K55" t="s">
+        <v>367</v>
+      </c>
+      <c r="L55" t="s">
+        <v>368</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>369</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" t="s">
+        <v>372</v>
+      </c>
+      <c r="K56" t="s">
+        <v>373</v>
+      </c>
+      <c r="L56" t="s">
+        <v>374</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>369</v>
+      </c>
+      <c r="O56" t="s">
+        <v>39</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>377</v>
+      </c>
+      <c r="J57" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" t="s">
+        <v>379</v>
+      </c>
+      <c r="L57" t="s">
+        <v>380</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>369</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>382</v>
+      </c>
+      <c r="J58" t="s">
+        <v>383</v>
+      </c>
+      <c r="K58" t="s">
+        <v>384</v>
+      </c>
+      <c r="L58" t="s">
+        <v>385</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>386</v>
+      </c>
+      <c r="O58" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>393</v>
+      </c>
+      <c r="O59" t="s">
+        <v>97</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>395</v>
+      </c>
+      <c r="J60" t="s">
+        <v>396</v>
+      </c>
+      <c r="K60" t="s">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s">
+        <v>398</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>386</v>
+      </c>
+      <c r="O60" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>400</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>401</v>
+      </c>
+      <c r="J61" t="s">
+        <v>402</v>
+      </c>
+      <c r="K61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>339</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>405</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" t="s">
+        <v>407</v>
+      </c>
+      <c r="K62" t="s">
+        <v>408</v>
+      </c>
+      <c r="L62" t="s">
+        <v>409</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>339</v>
+      </c>
+      <c r="O62" t="s">
+        <v>39</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>412</v>
+      </c>
+      <c r="J63" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s">
+        <v>415</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>416</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>419</v>
+      </c>
+      <c r="J64" t="s">
+        <v>420</v>
+      </c>
+      <c r="K64" t="s">
+        <v>216</v>
+      </c>
+      <c r="L64" t="s">
+        <v>421</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>416</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" t="s">
+        <v>425</v>
+      </c>
+      <c r="L65" t="s">
+        <v>426</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>427</v>
+      </c>
+      <c r="O65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>429</v>
+      </c>
+      <c r="J66" t="s">
+        <v>430</v>
+      </c>
+      <c r="K66" t="s">
+        <v>431</v>
+      </c>
+      <c r="L66" t="s">
+        <v>432</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>427</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>433</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>434</v>
+      </c>
+      <c r="J67" t="s">
+        <v>435</v>
+      </c>
+      <c r="K67" t="s">
+        <v>436</v>
+      </c>
+      <c r="L67" t="s">
+        <v>437</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>438</v>
+      </c>
+      <c r="X67" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>442</v>
+      </c>
+      <c r="J68" t="s">
+        <v>443</v>
+      </c>
+      <c r="K68" t="s">
+        <v>444</v>
+      </c>
+      <c r="L68" t="s">
+        <v>445</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>446</v>
+      </c>
+      <c r="O68" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>449</v>
+      </c>
+      <c r="J69" t="s">
+        <v>450</v>
+      </c>
+      <c r="K69" t="s">
+        <v>451</v>
+      </c>
+      <c r="L69" t="s">
+        <v>452</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>454</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>455</v>
+      </c>
+      <c r="J70" t="s">
+        <v>456</v>
+      </c>
+      <c r="K70" t="s">
+        <v>457</v>
+      </c>
+      <c r="L70" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>459</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>460</v>
+      </c>
+      <c r="J71" t="s">
+        <v>461</v>
+      </c>
+      <c r="K71" t="s">
+        <v>462</v>
+      </c>
+      <c r="L71" t="s">
+        <v>463</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>464</v>
+      </c>
+      <c r="O71" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>466</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>467</v>
+      </c>
+      <c r="J72" t="s">
+        <v>468</v>
+      </c>
+      <c r="K72" t="s">
+        <v>469</v>
+      </c>
+      <c r="L72" t="s">
+        <v>470</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>471</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>472</v>
+      </c>
+      <c r="J73" t="s">
+        <v>473</v>
+      </c>
+      <c r="K73" t="s">
+        <v>474</v>
+      </c>
+      <c r="L73" t="s">
+        <v>475</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>476</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>477</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>478</v>
+      </c>
+      <c r="J74" t="s">
+        <v>479</v>
+      </c>
+      <c r="K74" t="s">
+        <v>480</v>
+      </c>
+      <c r="L74" t="s">
+        <v>481</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>476</v>
+      </c>
+      <c r="O74" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>483</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>484</v>
+      </c>
+      <c r="J75" t="s">
+        <v>485</v>
+      </c>
+      <c r="K75" t="s">
+        <v>486</v>
+      </c>
+      <c r="L75" t="s">
+        <v>487</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>488</v>
+      </c>
+      <c r="O75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>490</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>491</v>
+      </c>
+      <c r="J76" t="s">
+        <v>492</v>
+      </c>
+      <c r="K76" t="s">
+        <v>493</v>
+      </c>
+      <c r="L76" t="s">
+        <v>494</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>495</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>496</v>
+      </c>
+      <c r="J77" t="s">
+        <v>497</v>
+      </c>
+      <c r="K77" t="s">
+        <v>498</v>
+      </c>
+      <c r="L77" t="s">
+        <v>499</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>500</v>
+      </c>
+      <c r="O77" t="s">
+        <v>39</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>501</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>502</v>
+      </c>
+      <c r="J78" t="s">
+        <v>503</v>
+      </c>
+      <c r="K78" t="s">
+        <v>504</v>
+      </c>
+      <c r="L78" t="s">
+        <v>505</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>506</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>507</v>
+      </c>
+      <c r="J79" t="s">
+        <v>508</v>
+      </c>
+      <c r="K79" t="s">
+        <v>509</v>
+      </c>
+      <c r="L79" t="s">
+        <v>510</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>511</v>
+      </c>
+      <c r="O79" t="s">
+        <v>97</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>512</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>513</v>
+      </c>
+      <c r="J80" t="s">
+        <v>514</v>
+      </c>
+      <c r="K80" t="s">
+        <v>515</v>
+      </c>
+      <c r="L80" t="s">
+        <v>516</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>517</v>
+      </c>
+      <c r="O80" t="s">
+        <v>39</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>518</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>519</v>
+      </c>
+      <c r="J81" t="s">
+        <v>520</v>
+      </c>
+      <c r="K81" t="s">
+        <v>521</v>
+      </c>
+      <c r="L81" t="s">
+        <v>522</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>523</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>524</v>
+      </c>
+      <c r="J82" t="s">
+        <v>525</v>
+      </c>
+      <c r="K82" t="s">
+        <v>526</v>
+      </c>
+      <c r="L82" t="s">
+        <v>527</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>511</v>
+      </c>
+      <c r="O82" t="s">
+        <v>39</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>528</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>529</v>
+      </c>
+      <c r="J83" t="s">
+        <v>530</v>
+      </c>
+      <c r="K83" t="s">
+        <v>531</v>
+      </c>
+      <c r="L83" t="s">
+        <v>532</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>533</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>534</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>535</v>
+      </c>
+      <c r="J84" t="s">
+        <v>536</v>
+      </c>
+      <c r="K84" t="s">
+        <v>537</v>
+      </c>
+      <c r="L84" t="s">
+        <v>538</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>539</v>
+      </c>
+      <c r="O84" t="s">
+        <v>51</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>541</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>542</v>
+      </c>
+      <c r="J85" t="s">
+        <v>543</v>
+      </c>
+      <c r="K85" t="s">
+        <v>544</v>
+      </c>
+      <c r="L85" t="s">
+        <v>545</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>546</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>547</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>548</v>
+      </c>
+      <c r="J86" t="s">
+        <v>549</v>
+      </c>
+      <c r="K86" t="s">
+        <v>550</v>
+      </c>
+      <c r="L86" t="s">
+        <v>551</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>552</v>
+      </c>
+      <c r="O86" t="s">
+        <v>78</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>554</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>555</v>
+      </c>
+      <c r="J87" t="s">
+        <v>556</v>
+      </c>
+      <c r="K87" t="s">
+        <v>557</v>
+      </c>
+      <c r="L87" t="s">
+        <v>558</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>559</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>561</v>
+      </c>
+      <c r="J88" t="s">
+        <v>562</v>
+      </c>
+      <c r="K88" t="s">
+        <v>563</v>
+      </c>
+      <c r="L88" t="s">
+        <v>564</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>565</v>
+      </c>
+      <c r="O88" t="s">
+        <v>39</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>567</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>568</v>
+      </c>
+      <c r="J89" t="s">
+        <v>569</v>
+      </c>
+      <c r="K89" t="s">
+        <v>570</v>
+      </c>
+      <c r="L89" t="s">
+        <v>571</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>573</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>574</v>
+      </c>
+      <c r="J90" t="s">
+        <v>575</v>
+      </c>
+      <c r="K90" t="s">
+        <v>576</v>
+      </c>
+      <c r="L90" t="s">
+        <v>577</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>577</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +7803,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>579</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>580</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>581</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>582</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>583</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>584</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>585</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +7835,31 @@
         <v>6441</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>588</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>589</v>
       </c>
       <c r="E2" t="n">
         <v>70458</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>591</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>592</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>593</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
